--- a/notebooks/gdp_lecture/Temperature Anomaly.xlsx
+++ b/notebooks/gdp_lecture/Temperature Anomaly.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d65c42c8339c1928/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FDCF9DD-E799-42AB-8D38-B2ED7453A9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{4FDCF9DD-E799-42AB-8D38-B2ED7453A9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB5BA481-DE4A-47EB-9E92-71D71831A24F}"/>
   <bookViews>
-    <workbookView xWindow="11790" yWindow="705" windowWidth="20370" windowHeight="20175" xr2:uid="{45334900-0F21-4BB3-84C6-513C5D815AB2}"/>
+    <workbookView xWindow="6270" yWindow="705" windowWidth="20370" windowHeight="20175" activeTab="1" xr2:uid="{45334900-0F21-4BB3-84C6-513C5D815AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Year</t>
   </si>
@@ -48,6 +49,9 @@
   </si>
   <si>
     <t>GDP per Capita</t>
+  </si>
+  <si>
+    <t>PAGES2k Consortium 2019 global mean temperature reconstructions</t>
   </si>
 </sst>
 </file>
@@ -136,6 +140,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711CF8DD-9EDF-48E9-BA92-3EF1DFA2FC40}">
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,1484 +888,6284 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>1860.89862900862</v>
+      <c r="A50">
+        <v>1861</v>
+      </c>
+      <c r="C50">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C51">
-        <v>-0.65</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="C52">
-        <v>-0.46</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="C53">
-        <v>-0.15</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C54">
-        <v>-0.35</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="C55">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C56">
-        <v>0.01</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="C57">
-        <v>-0.17</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="C58">
-        <v>-0.38</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="C59">
-        <v>0.04</v>
+        <v>-0.15</v>
+      </c>
+      <c r="D59">
+        <v>1800</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="C60">
-        <v>-0.15</v>
-      </c>
-      <c r="D60">
-        <v>1800</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="C61">
-        <v>-0.35</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="C62">
-        <v>-0.27</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="C63">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1874</v>
-      </c>
-      <c r="C64">
-        <v>-0.21</v>
+      <c r="A64" s="1">
+        <v>1874.1663300569901</v>
+      </c>
+      <c r="B64">
+        <v>-0.21889250814332201</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>1874.1663300569901</v>
-      </c>
-      <c r="B65">
-        <v>-0.21889250814332201</v>
+      <c r="A65">
+        <v>1875</v>
+      </c>
+      <c r="C65">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="C66">
-        <v>-0.12</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="C67">
-        <v>-0.23</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C68">
-        <v>-0.09</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="C69">
-        <v>0.14000000000000001</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="C70">
-        <v>-0.05</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C71">
-        <v>-0.31</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="C72">
-        <v>-0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="C73">
-        <v>0.1</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C74">
-        <v>-0.19</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1884</v>
+        <v>1885</v>
+      </c>
+      <c r="B75">
+        <v>-0.26384364820846901</v>
       </c>
       <c r="C75">
-        <v>-0.22</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1885</v>
-      </c>
-      <c r="B76">
-        <v>-0.26384364820846901</v>
+        <v>1886</v>
       </c>
       <c r="C76">
-        <v>-0.41</v>
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>1886.03743099501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1887</v>
+      </c>
+      <c r="C78">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1888</v>
+      </c>
+      <c r="C79">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1889</v>
+      </c>
+      <c r="C80">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1890</v>
+      </c>
+      <c r="C81">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1891</v>
+      </c>
+      <c r="C82">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1892</v>
+      </c>
+      <c r="C83">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1893</v>
+      </c>
+      <c r="C84">
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1894</v>
+      </c>
+      <c r="B85">
+        <v>-0.310749185667752</v>
+      </c>
+      <c r="C85">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1895</v>
+      </c>
+      <c r="C86">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1896</v>
+      </c>
+      <c r="C87">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1897</v>
+      </c>
+      <c r="C88">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1898</v>
+      </c>
+      <c r="C89">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1899</v>
+      </c>
+      <c r="C90">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1900</v>
+      </c>
+      <c r="C91">
+        <v>-0.27</v>
+      </c>
+      <c r="D91">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1901</v>
+      </c>
+      <c r="C92">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1902</v>
+      </c>
+      <c r="B93">
+        <v>-0.34983713355048801</v>
+      </c>
+      <c r="C93">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1903</v>
+      </c>
+      <c r="C94">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1904</v>
+      </c>
+      <c r="C95">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1905</v>
+      </c>
+      <c r="C96">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1906</v>
+      </c>
+      <c r="C97">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1907</v>
+      </c>
+      <c r="C98">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1908</v>
+      </c>
+      <c r="C99">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1909</v>
+      </c>
+      <c r="C100">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>1909.0813328158699</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1910</v>
+      </c>
+      <c r="C102">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1911</v>
+      </c>
+      <c r="C103">
+        <v>-0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1912</v>
+      </c>
+      <c r="C104">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1913</v>
+      </c>
+      <c r="C105">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1914</v>
+      </c>
+      <c r="C106">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1915</v>
+      </c>
+      <c r="C107">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>1915.3660333124701</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1916</v>
+      </c>
+      <c r="C109">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1917</v>
+      </c>
+      <c r="C110">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1918</v>
+      </c>
+      <c r="C111">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1919</v>
+      </c>
+      <c r="B112">
+        <v>-0.30488599348534201</v>
+      </c>
+      <c r="C112">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1920</v>
+      </c>
+      <c r="C113">
+        <v>-0.17</v>
+      </c>
+      <c r="D113">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1921</v>
+      </c>
+      <c r="B114">
+        <v>-0.25798045602605801</v>
+      </c>
+      <c r="C114">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1922</v>
+      </c>
+      <c r="C115">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1923</v>
+      </c>
+      <c r="C116">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1924</v>
+      </c>
+      <c r="C117">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1925</v>
+      </c>
+      <c r="C118">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1926</v>
+      </c>
+      <c r="C119">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1927</v>
+      </c>
+      <c r="C120">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1928</v>
+      </c>
+      <c r="C121">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1929</v>
+      </c>
+      <c r="C122">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1930</v>
+      </c>
+      <c r="C123">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1931</v>
+      </c>
+      <c r="C124">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1932</v>
+      </c>
+      <c r="C125">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1933</v>
+      </c>
+      <c r="C126">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1934</v>
+      </c>
+      <c r="B127">
+        <v>-0.205211726384364</v>
+      </c>
+      <c r="C127">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1935</v>
+      </c>
+      <c r="C128">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1936</v>
+      </c>
+      <c r="C129">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1937</v>
+      </c>
+      <c r="C130">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1938</v>
+      </c>
+      <c r="C131">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1939</v>
+      </c>
+      <c r="C132">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1940</v>
+      </c>
+      <c r="C133">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D133">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1941</v>
+      </c>
+      <c r="C134">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1942</v>
+      </c>
+      <c r="C135">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1943</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1944</v>
+      </c>
+      <c r="C137">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1945</v>
+      </c>
+      <c r="C138">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>1945.48022319201</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1946</v>
+      </c>
+      <c r="C140">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1947</v>
+      </c>
+      <c r="C141">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1948</v>
+      </c>
+      <c r="C142">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1949</v>
+      </c>
+      <c r="C143">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1950</v>
+      </c>
+      <c r="C144">
+        <v>-0.2</v>
+      </c>
+      <c r="D144">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1951</v>
+      </c>
+      <c r="C145">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1952</v>
+      </c>
+      <c r="C146">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1953</v>
+      </c>
+      <c r="C147">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1954</v>
+      </c>
+      <c r="C148">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1955</v>
+      </c>
+      <c r="C149">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1956</v>
+      </c>
+      <c r="C150">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1957</v>
+      </c>
+      <c r="C151">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1958</v>
+      </c>
+      <c r="C152">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1959</v>
+      </c>
+      <c r="B153">
+        <v>-0.16612377850162799</v>
+      </c>
+      <c r="C153">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1960</v>
+      </c>
+      <c r="C154">
+        <v>0.05</v>
+      </c>
+      <c r="D154">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1961</v>
+      </c>
+      <c r="C155">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1962</v>
+      </c>
+      <c r="C156">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1963</v>
+      </c>
+      <c r="C157">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1964</v>
+      </c>
+      <c r="C158">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1965</v>
+      </c>
+      <c r="C159">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1966</v>
+      </c>
+      <c r="C160">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1967</v>
+      </c>
+      <c r="C161">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1968</v>
+      </c>
+      <c r="C162">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>1968.4867160813401</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1969</v>
+      </c>
+      <c r="C164">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1970</v>
+      </c>
+      <c r="C165">
+        <v>0.18</v>
+      </c>
+      <c r="D165">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1971</v>
+      </c>
+      <c r="C166">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1972</v>
+      </c>
+      <c r="C167">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1973</v>
+      </c>
+      <c r="C168">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1974</v>
+      </c>
+      <c r="C169">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1975</v>
+      </c>
+      <c r="C170">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1976</v>
+      </c>
+      <c r="B171">
+        <v>-0.121172638436482</v>
+      </c>
+      <c r="C171">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1977</v>
+      </c>
+      <c r="C172">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1978</v>
+      </c>
+      <c r="C173">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1979</v>
+      </c>
+      <c r="C174">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1980</v>
+      </c>
+      <c r="C175">
+        <v>0.37</v>
+      </c>
+      <c r="D175">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1981</v>
+      </c>
+      <c r="C176">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1982</v>
+      </c>
+      <c r="C177">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1983</v>
+      </c>
+      <c r="C178">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1984</v>
+      </c>
+      <c r="C179">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1985</v>
+      </c>
+      <c r="C180">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1986</v>
+      </c>
+      <c r="C181">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1987</v>
+      </c>
+      <c r="C182">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1988</v>
+      </c>
+      <c r="C183">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1989</v>
+      </c>
+      <c r="C184">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1990</v>
+      </c>
+      <c r="C185">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1991</v>
+      </c>
+      <c r="C186">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1992</v>
+      </c>
+      <c r="C187">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1993</v>
+      </c>
+      <c r="C188">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1994</v>
+      </c>
+      <c r="C189">
+        <v>0.23</v>
+      </c>
+      <c r="D189">
+        <v>9791.4230000000007</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1995</v>
+      </c>
+      <c r="C190">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D190">
+        <v>9949.6679999999997</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1996</v>
+      </c>
+      <c r="C191">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D191">
+        <v>10175.511</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1997</v>
+      </c>
+      <c r="C192">
+        <v>0.27</v>
+      </c>
+      <c r="D192">
+        <v>10418.802</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1998</v>
+      </c>
+      <c r="C193">
+        <v>0.59</v>
+      </c>
+      <c r="D193">
+        <v>10526.853999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1999</v>
+      </c>
+      <c r="C194">
+        <v>0.47</v>
+      </c>
+      <c r="D194">
+        <v>10749.005999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2000</v>
+      </c>
+      <c r="C195">
+        <v>0.32</v>
+      </c>
+      <c r="D195">
+        <v>11108.324000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2001</v>
+      </c>
+      <c r="C196">
+        <v>0.45</v>
+      </c>
+      <c r="D196">
+        <v>11215.04</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2002</v>
+      </c>
+      <c r="C197">
+        <v>0.68</v>
+      </c>
+      <c r="D197">
+        <v>11367.638999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2003</v>
+      </c>
+      <c r="C198">
+        <v>0.72</v>
+      </c>
+      <c r="D198">
+        <v>11637.828</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2004</v>
+      </c>
+      <c r="C199">
+        <v>0.62</v>
+      </c>
+      <c r="D199">
+        <v>12074.206</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2005</v>
+      </c>
+      <c r="C200">
+        <v>0.76</v>
+      </c>
+      <c r="D200">
+        <v>12463.141</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2006</v>
+      </c>
+      <c r="C201">
+        <v>0.6</v>
+      </c>
+      <c r="D201">
+        <v>12933.736000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2007</v>
+      </c>
+      <c r="C202">
+        <v>0.92</v>
+      </c>
+      <c r="D202">
+        <v>13428.616</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2008</v>
+      </c>
+      <c r="C203">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D203">
+        <v>13622.655000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2009</v>
+      </c>
+      <c r="C204">
+        <v>0.67</v>
+      </c>
+      <c r="D204">
+        <v>13359.558000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2010</v>
+      </c>
+      <c r="C205">
+        <v>0.77</v>
+      </c>
+      <c r="D205">
+        <v>13868.406000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2011</v>
+      </c>
+      <c r="C206">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D206">
+        <v>14230.718999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2012</v>
+      </c>
+      <c r="C207">
+        <v>0.51</v>
+      </c>
+      <c r="D207">
+        <v>14504.989</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2013</v>
+      </c>
+      <c r="C208">
+        <v>0.69</v>
+      </c>
+      <c r="D208">
+        <v>14789.621999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2014</v>
+      </c>
+      <c r="C209">
+        <v>0.75</v>
+      </c>
+      <c r="D209">
+        <v>15112.653</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2015</v>
+      </c>
+      <c r="C210">
+        <v>0.84</v>
+      </c>
+      <c r="D210">
+        <v>15433.18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2016</v>
+      </c>
+      <c r="C211">
+        <v>1.21</v>
+      </c>
+      <c r="D211">
+        <v>15750.084000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2017</v>
+      </c>
+      <c r="C212">
+        <v>1.05</v>
+      </c>
+      <c r="D212">
+        <v>16156.353999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2018</v>
+      </c>
+      <c r="C213">
+        <v>0.84</v>
+      </c>
+      <c r="D213">
+        <v>16558.998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2019</v>
+      </c>
+      <c r="C214">
+        <v>0.92</v>
+      </c>
+      <c r="D214">
+        <v>16847.46</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2020</v>
+      </c>
+      <c r="C215">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D215">
+        <v>16175.776</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2021</v>
+      </c>
+      <c r="C216">
+        <v>0.84</v>
+      </c>
+      <c r="D216">
+        <v>16997.134999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2022</v>
+      </c>
+      <c r="C217">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2023</v>
+      </c>
+      <c r="C218">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2024</v>
+      </c>
+      <c r="C219">
+        <v>1.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37D7840-6AC1-428C-9D70-8867D5AA9E0C}">
+  <dimension ref="A1:D526"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1500</v>
+      </c>
+      <c r="C2">
+        <v>-0.41099999999999998</v>
+      </c>
+      <c r="D2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1501</v>
+      </c>
+      <c r="C3">
+        <v>-0.38090000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1502</v>
+      </c>
+      <c r="C4">
+        <v>-0.38640000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1503</v>
+      </c>
+      <c r="C5">
+        <v>-0.40139999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1504</v>
+      </c>
+      <c r="C6">
+        <v>-0.33989999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1505</v>
+      </c>
+      <c r="C7">
+        <v>-0.36919999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1506</v>
+      </c>
+      <c r="C8">
+        <v>-0.33460000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1507</v>
+      </c>
+      <c r="C9">
+        <v>-0.38969999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1508</v>
+      </c>
+      <c r="C10">
+        <v>-0.33489999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1509</v>
+      </c>
+      <c r="C11">
+        <v>-0.36180000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1510</v>
+      </c>
+      <c r="C12">
+        <v>-0.33310000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1511</v>
+      </c>
+      <c r="C13">
+        <v>-0.40579999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1512</v>
+      </c>
+      <c r="C14">
+        <v>-0.31390000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1513</v>
+      </c>
+      <c r="C15">
+        <v>-0.3548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1514</v>
+      </c>
+      <c r="C16">
+        <v>-0.37190000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1515</v>
+      </c>
+      <c r="C17">
+        <v>-0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1516</v>
+      </c>
+      <c r="C18">
+        <v>-0.46210000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1517</v>
+      </c>
+      <c r="C19">
+        <v>-0.37930000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1518</v>
+      </c>
+      <c r="C20">
+        <v>-0.4365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1519</v>
+      </c>
+      <c r="C21">
+        <v>-0.41589999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1520</v>
+      </c>
+      <c r="C22">
+        <v>-0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1521</v>
+      </c>
+      <c r="C23">
+        <v>-0.45079999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1522</v>
+      </c>
+      <c r="C24">
+        <v>-0.46579999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1523</v>
+      </c>
+      <c r="C25">
+        <v>-0.47539999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1524</v>
+      </c>
+      <c r="C26">
+        <v>-0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1525</v>
+      </c>
+      <c r="C27">
+        <v>-0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1526</v>
+      </c>
+      <c r="C28">
+        <v>-0.40489999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1527</v>
+      </c>
+      <c r="C29">
+        <v>-0.32840000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1528</v>
+      </c>
+      <c r="C30">
+        <v>-0.4461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1529</v>
+      </c>
+      <c r="C31">
+        <v>-0.37990000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1530</v>
+      </c>
+      <c r="C32">
+        <v>-0.31190000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1531</v>
+      </c>
+      <c r="C33">
+        <v>-0.3569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1532</v>
+      </c>
+      <c r="C34">
+        <v>-0.3569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1533</v>
+      </c>
+      <c r="C35">
+        <v>-0.40679999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1534</v>
+      </c>
+      <c r="C36">
+        <v>-0.37169999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1535</v>
+      </c>
+      <c r="C37">
+        <v>-0.30769999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1536</v>
+      </c>
+      <c r="C38">
+        <v>-0.34720000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1537</v>
+      </c>
+      <c r="C39">
+        <v>-0.31890000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1538</v>
+      </c>
+      <c r="C40">
+        <v>-0.35189999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1539</v>
+      </c>
+      <c r="C41">
+        <v>-0.29170000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1540</v>
+      </c>
+      <c r="C42">
+        <v>-0.4098</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1541</v>
+      </c>
+      <c r="C43">
+        <v>-0.38779999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1542</v>
+      </c>
+      <c r="C44">
+        <v>-0.45650000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1543</v>
+      </c>
+      <c r="C45">
+        <v>-0.47720000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1544</v>
+      </c>
+      <c r="C46">
+        <v>-0.51370000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1545</v>
+      </c>
+      <c r="C47">
+        <v>-0.34010000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1546</v>
+      </c>
+      <c r="C48">
+        <v>-0.40050000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1547</v>
+      </c>
+      <c r="C49">
+        <v>-0.4103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1548</v>
+      </c>
+      <c r="C50">
+        <v>-0.40289999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1549</v>
+      </c>
+      <c r="C51">
+        <v>-0.4073</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1550</v>
+      </c>
+      <c r="C52">
+        <v>-0.32340000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1551</v>
+      </c>
+      <c r="C53">
+        <v>-0.30309999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1552</v>
+      </c>
+      <c r="C54">
+        <v>-0.30940000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1553</v>
+      </c>
+      <c r="C55">
+        <v>-0.33379999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1554</v>
+      </c>
+      <c r="C56">
+        <v>-0.37459999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1555</v>
+      </c>
+      <c r="C57">
+        <v>-0.38790000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1556</v>
+      </c>
+      <c r="C58">
+        <v>-0.35270000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1557</v>
+      </c>
+      <c r="C59">
+        <v>-0.39579999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1558</v>
+      </c>
+      <c r="C60">
+        <v>-0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1559</v>
+      </c>
+      <c r="C61">
+        <v>-0.40079999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1560</v>
+      </c>
+      <c r="C62">
+        <v>-0.27989999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1561</v>
+      </c>
+      <c r="C63">
+        <v>-0.3276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1562</v>
+      </c>
+      <c r="C64">
+        <v>-0.29680000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1563</v>
+      </c>
+      <c r="C65">
+        <v>-0.25890000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1564</v>
+      </c>
+      <c r="C66">
+        <v>-0.22520000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1565</v>
+      </c>
+      <c r="C67">
+        <v>-0.22189999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1566</v>
+      </c>
+      <c r="C68">
+        <v>-0.28370000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1567</v>
+      </c>
+      <c r="C69">
+        <v>-0.34289999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1568</v>
+      </c>
+      <c r="C70">
+        <v>-0.31809999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1569</v>
+      </c>
+      <c r="C71">
+        <v>-0.28370000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1570</v>
+      </c>
+      <c r="C72">
+        <v>-0.32090000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1571</v>
+      </c>
+      <c r="C73">
+        <v>-0.40079999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1572</v>
+      </c>
+      <c r="C74">
+        <v>-0.41189999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1573</v>
+      </c>
+      <c r="C75">
+        <v>-0.40489999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1574</v>
+      </c>
+      <c r="C76">
+        <v>-0.38800000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1886</v>
+        <v>1575</v>
       </c>
       <c r="C77">
-        <v>-0.3</v>
+        <v>-0.28289999999999998</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>1886.03743099501</v>
+      <c r="A78">
+        <v>1576</v>
+      </c>
+      <c r="C78">
+        <v>-0.31290000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1887</v>
+        <v>1577</v>
       </c>
       <c r="C79">
-        <v>-0.65</v>
+        <v>-0.37480000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1888</v>
+        <v>1578</v>
       </c>
       <c r="C80">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.46439999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1889</v>
+        <v>1579</v>
       </c>
       <c r="C81">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.50649999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1890</v>
+        <v>1580</v>
       </c>
       <c r="C82">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.47670000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1891</v>
+        <v>1581</v>
       </c>
       <c r="C83">
-        <v>-0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.43980000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1892</v>
+        <v>1582</v>
       </c>
       <c r="C84">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.38819999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1893</v>
+        <v>1583</v>
       </c>
       <c r="C85">
-        <v>-0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.35759999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1894</v>
-      </c>
-      <c r="B86">
-        <v>-0.310749185667752</v>
+        <v>1584</v>
       </c>
       <c r="C86">
-        <v>-0.54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.43480000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1895</v>
+        <v>1585</v>
       </c>
       <c r="C87">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.46360000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1896</v>
+        <v>1586</v>
       </c>
       <c r="C88">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.45350000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1897</v>
+        <v>1587</v>
       </c>
       <c r="C89">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.49890000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1898</v>
+        <v>1588</v>
       </c>
       <c r="C90">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.41549999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1899</v>
+        <v>1589</v>
       </c>
       <c r="C91">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.47089999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1900</v>
+        <v>1590</v>
       </c>
       <c r="C92">
-        <v>-0.27</v>
-      </c>
-      <c r="D92">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.43930000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1901</v>
+        <v>1591</v>
       </c>
       <c r="C93">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1902</v>
-      </c>
-      <c r="B94">
-        <v>-0.34983713355048801</v>
+        <v>1592</v>
       </c>
       <c r="C94">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.41589999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1903</v>
+        <v>1593</v>
       </c>
       <c r="C95">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.49790000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1904</v>
+        <v>1594</v>
       </c>
       <c r="C96">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.39689999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1905</v>
+        <v>1595</v>
       </c>
       <c r="C97">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.43719999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1906</v>
+        <v>1596</v>
       </c>
       <c r="C98">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.47370000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1907</v>
+        <v>1597</v>
       </c>
       <c r="C99">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.46179999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1908</v>
+        <v>1598</v>
       </c>
       <c r="C100">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.42349999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1909</v>
+        <v>1599</v>
       </c>
       <c r="C101">
-        <v>-0.67</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>1909.0813328158699</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.4657</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1600</v>
+      </c>
+      <c r="C102">
+        <v>-0.443</v>
+      </c>
+      <c r="D102">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1910</v>
+        <v>1601</v>
       </c>
       <c r="C103">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.71279999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1911</v>
+        <v>1602</v>
       </c>
       <c r="C104">
-        <v>-0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.58630000000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1912</v>
+        <v>1603</v>
       </c>
       <c r="C105">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.50839999999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1913</v>
+        <v>1604</v>
       </c>
       <c r="C106">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.50219999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1914</v>
+        <v>1605</v>
       </c>
       <c r="C107">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.56659999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1915</v>
+        <v>1606</v>
       </c>
       <c r="C108">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>1915.3660333124701</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.55769999999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1607</v>
+      </c>
+      <c r="C109">
+        <v>-0.50860000000000005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1916</v>
+        <v>1608</v>
       </c>
       <c r="C110">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1917</v>
+        <v>1609</v>
       </c>
       <c r="C111">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.50690000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1918</v>
+        <v>1610</v>
       </c>
       <c r="C112">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.46089999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1919</v>
-      </c>
-      <c r="B113">
-        <v>-0.30488599348534201</v>
+        <v>1611</v>
       </c>
       <c r="C113">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.3846</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1920</v>
+        <v>1612</v>
       </c>
       <c r="C114">
-        <v>-0.17</v>
-      </c>
-      <c r="D114">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.43180000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1921</v>
-      </c>
-      <c r="B115">
-        <v>-0.25798045602605801</v>
+        <v>1613</v>
       </c>
       <c r="C115">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.39879999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1922</v>
+        <v>1614</v>
       </c>
       <c r="C116">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.41789999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1923</v>
+        <v>1615</v>
       </c>
       <c r="C117">
-        <v>-0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.46289999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1924</v>
+        <v>1616</v>
       </c>
       <c r="C118">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.35089999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1925</v>
+        <v>1617</v>
       </c>
       <c r="C119">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.37190000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1926</v>
+        <v>1618</v>
       </c>
       <c r="C120">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.46589999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1927</v>
+        <v>1619</v>
       </c>
       <c r="C121">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.4163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1928</v>
+        <v>1620</v>
       </c>
       <c r="C122">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.4723</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1929</v>
+        <v>1621</v>
       </c>
       <c r="C123">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.48870000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1930</v>
+        <v>1622</v>
       </c>
       <c r="C124">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.4667</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1931</v>
+        <v>1623</v>
       </c>
       <c r="C125">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.52390000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1932</v>
+        <v>1624</v>
       </c>
       <c r="C126">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.55769999999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1933</v>
+        <v>1625</v>
       </c>
       <c r="C127">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.55230000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1934</v>
-      </c>
-      <c r="B128">
-        <v>-0.205211726384364</v>
+        <v>1626</v>
       </c>
       <c r="C128">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.50370000000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1935</v>
+        <v>1627</v>
       </c>
       <c r="C129">
-        <v>-0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.50780000000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1936</v>
+        <v>1628</v>
       </c>
       <c r="C130">
-        <v>-0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.4491</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1937</v>
+        <v>1629</v>
       </c>
       <c r="C131">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1938</v>
+        <v>1630</v>
       </c>
       <c r="C132">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.43940000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1939</v>
+        <v>1631</v>
       </c>
       <c r="C133">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.47089999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1940</v>
+        <v>1632</v>
       </c>
       <c r="C134">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D134">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.41820000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1941</v>
+        <v>1633</v>
       </c>
       <c r="C135">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.4541</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1942</v>
+        <v>1634</v>
       </c>
       <c r="C136">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1943</v>
+        <v>1635</v>
       </c>
       <c r="C137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1944</v>
+        <v>1636</v>
       </c>
       <c r="C138">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.3377</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1945</v>
+        <v>1637</v>
       </c>
       <c r="C139">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>1945.48022319201</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.39579999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1638</v>
+      </c>
+      <c r="C140">
+        <v>-0.41170000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1946</v>
+        <v>1639</v>
       </c>
       <c r="C141">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.44929999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1947</v>
+        <v>1640</v>
       </c>
       <c r="C142">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.38080000000000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1948</v>
+        <v>1641</v>
       </c>
       <c r="C143">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.61380000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1949</v>
+        <v>1642</v>
       </c>
       <c r="C144">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.56830000000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1950</v>
+        <v>1643</v>
       </c>
       <c r="C145">
-        <v>-0.2</v>
-      </c>
-      <c r="D145">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.58960000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1951</v>
+        <v>1644</v>
       </c>
       <c r="C146">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1952</v>
+        <v>1645</v>
       </c>
       <c r="C147">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.52890000000000004</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1953</v>
+        <v>1646</v>
       </c>
       <c r="C148">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.5464</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1954</v>
+        <v>1647</v>
       </c>
       <c r="C149">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.53090000000000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1955</v>
+        <v>1648</v>
       </c>
       <c r="C150">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.48080000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1956</v>
+        <v>1649</v>
       </c>
       <c r="C151">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.43859999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1957</v>
+        <v>1650</v>
       </c>
       <c r="C152">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.45090000000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1958</v>
+        <v>1651</v>
       </c>
       <c r="C153">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.3856</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1959</v>
-      </c>
-      <c r="B154">
-        <v>-0.16612377850162799</v>
+        <v>1652</v>
       </c>
       <c r="C154">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.49880000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1960</v>
+        <v>1653</v>
       </c>
       <c r="C155">
-        <v>0.05</v>
-      </c>
-      <c r="D155">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.46579999999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1961</v>
+        <v>1654</v>
       </c>
       <c r="C156">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.4446</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1962</v>
+        <v>1655</v>
       </c>
       <c r="C157">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.37790000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1963</v>
+        <v>1656</v>
       </c>
       <c r="C158">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.35189999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1964</v>
+        <v>1657</v>
       </c>
       <c r="C159">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.31490000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1965</v>
+        <v>1658</v>
       </c>
       <c r="C160">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.35659999999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1966</v>
+        <v>1659</v>
       </c>
       <c r="C161">
-        <v>-0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.36380000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1967</v>
+        <v>1660</v>
       </c>
       <c r="C162">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.32590000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1968</v>
+        <v>1661</v>
       </c>
       <c r="C163">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>1968.4867160813401</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.3276</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1662</v>
+      </c>
+      <c r="C164">
+        <v>-0.39190000000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1969</v>
+        <v>1663</v>
       </c>
       <c r="C165">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.48680000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1970</v>
+        <v>1664</v>
       </c>
       <c r="C166">
-        <v>0.18</v>
-      </c>
-      <c r="D166">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.39779999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1971</v>
+        <v>1665</v>
       </c>
       <c r="C167">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1972</v>
+        <v>1666</v>
       </c>
       <c r="C168">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.48120000000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1973</v>
+        <v>1667</v>
       </c>
       <c r="C169">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.48880000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1974</v>
+        <v>1668</v>
       </c>
       <c r="C170">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.50160000000000005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1975</v>
+        <v>1669</v>
       </c>
       <c r="C171">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.50309999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1976</v>
-      </c>
-      <c r="B172">
-        <v>-0.121172638436482</v>
+        <v>1670</v>
       </c>
       <c r="C172">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.54879999999999995</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1977</v>
+        <v>1671</v>
       </c>
       <c r="C173">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.45979999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1978</v>
+        <v>1672</v>
       </c>
       <c r="C174">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.4929</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1979</v>
+        <v>1673</v>
       </c>
       <c r="C175">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.52910000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1980</v>
+        <v>1674</v>
       </c>
       <c r="C176">
-        <v>0.37</v>
-      </c>
-      <c r="D176">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1981</v>
+        <v>1675</v>
       </c>
       <c r="C177">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.52210000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>1982</v>
+        <v>1676</v>
       </c>
       <c r="C178">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.51529999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>1983</v>
+        <v>1677</v>
       </c>
       <c r="C179">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.5514</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>1984</v>
+        <v>1678</v>
       </c>
       <c r="C180">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.53890000000000005</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>1985</v>
+        <v>1679</v>
       </c>
       <c r="C181">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.54490000000000005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1986</v>
+        <v>1680</v>
       </c>
       <c r="C182">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>1987</v>
+        <v>1681</v>
       </c>
       <c r="C183">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.51339999999999997</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>1988</v>
+        <v>1682</v>
       </c>
       <c r="C184">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.45979999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>1989</v>
+        <v>1683</v>
       </c>
       <c r="C185">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.39360000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>1990</v>
+        <v>1684</v>
       </c>
       <c r="C186">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.38269999999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>1991</v>
+        <v>1685</v>
       </c>
       <c r="C187">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>1992</v>
+        <v>1686</v>
       </c>
       <c r="C188">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.35360000000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>1993</v>
+        <v>1687</v>
       </c>
       <c r="C189">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.38390000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>1994</v>
+        <v>1688</v>
       </c>
       <c r="C190">
-        <v>0.23</v>
-      </c>
-      <c r="D190">
-        <v>9791.4230000000007</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.38690000000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>1995</v>
+        <v>1689</v>
       </c>
       <c r="C191">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D191">
-        <v>9949.6679999999997</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.29249999999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>1996</v>
+        <v>1690</v>
       </c>
       <c r="C192">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D192">
-        <v>10175.511</v>
+        <v>-0.34770000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>1997</v>
+        <v>1691</v>
       </c>
       <c r="C193">
-        <v>0.27</v>
-      </c>
-      <c r="D193">
-        <v>10418.802</v>
+        <v>-0.34870000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>1998</v>
+        <v>1692</v>
       </c>
       <c r="C194">
-        <v>0.59</v>
-      </c>
-      <c r="D194">
-        <v>10526.853999999999</v>
+        <v>-0.36299999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>1999</v>
+        <v>1693</v>
       </c>
       <c r="C195">
-        <v>0.47</v>
-      </c>
-      <c r="D195">
-        <v>10749.005999999999</v>
+        <v>-0.33579999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>2000</v>
+        <v>1694</v>
       </c>
       <c r="C196">
-        <v>0.32</v>
-      </c>
-      <c r="D196">
-        <v>11108.324000000001</v>
+        <v>-0.35730000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>2001</v>
+        <v>1695</v>
       </c>
       <c r="C197">
-        <v>0.45</v>
-      </c>
-      <c r="D197">
-        <v>11215.04</v>
+        <v>-0.4778</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>2002</v>
+        <v>1696</v>
       </c>
       <c r="C198">
-        <v>0.68</v>
-      </c>
-      <c r="D198">
-        <v>11367.638999999999</v>
+        <v>-0.47470000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>2003</v>
+        <v>1697</v>
       </c>
       <c r="C199">
-        <v>0.72</v>
-      </c>
-      <c r="D199">
-        <v>11637.828</v>
+        <v>-0.50139999999999996</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>2004</v>
+        <v>1698</v>
       </c>
       <c r="C200">
-        <v>0.62</v>
-      </c>
-      <c r="D200">
-        <v>12074.206</v>
+        <v>-0.56510000000000005</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>2005</v>
+        <v>1699</v>
       </c>
       <c r="C201">
-        <v>0.76</v>
-      </c>
-      <c r="D201">
-        <v>12463.141</v>
+        <v>-0.66879999999999995</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>2006</v>
+        <v>1700</v>
       </c>
       <c r="C202">
-        <v>0.6</v>
+        <v>-0.54479999999999995</v>
       </c>
       <c r="D202">
-        <v>12933.736000000001</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>2007</v>
+        <v>1701</v>
       </c>
       <c r="C203">
-        <v>0.92</v>
-      </c>
-      <c r="D203">
-        <v>13428.616</v>
+        <v>-0.59560000000000002</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>2008</v>
+        <v>1702</v>
       </c>
       <c r="C204">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D204">
-        <v>13622.655000000001</v>
+        <v>-0.56499999999999995</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>2009</v>
+        <v>1703</v>
       </c>
       <c r="C205">
-        <v>0.67</v>
-      </c>
-      <c r="D205">
-        <v>13359.558000000001</v>
+        <v>-0.47570000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>2010</v>
+        <v>1704</v>
       </c>
       <c r="C206">
-        <v>0.77</v>
-      </c>
-      <c r="D206">
-        <v>13868.406000000001</v>
+        <v>-0.58109999999999995</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>2011</v>
+        <v>1705</v>
       </c>
       <c r="C207">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D207">
-        <v>14230.718999999999</v>
+        <v>-0.59689999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
+        <v>1706</v>
+      </c>
+      <c r="C208">
+        <v>-0.55479999999999996</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1707</v>
+      </c>
+      <c r="C209">
+        <v>-0.48520000000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1708</v>
+      </c>
+      <c r="C210">
+        <v>-0.51119999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1709</v>
+      </c>
+      <c r="C211">
+        <v>-0.4929</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1710</v>
+      </c>
+      <c r="C212">
+        <v>-0.42980000000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1711</v>
+      </c>
+      <c r="C213">
+        <v>-0.45729999999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1712</v>
+      </c>
+      <c r="C214">
+        <v>-0.36709999999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1713</v>
+      </c>
+      <c r="C215">
+        <v>-0.38679999999999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1714</v>
+      </c>
+      <c r="C216">
+        <v>-0.49380000000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1715</v>
+      </c>
+      <c r="C217">
+        <v>-0.44280000000000003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1716</v>
+      </c>
+      <c r="C218">
+        <v>-0.43290000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1717</v>
+      </c>
+      <c r="C219">
+        <v>-0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1718</v>
+      </c>
+      <c r="C220">
+        <v>-0.40849999999999997</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1719</v>
+      </c>
+      <c r="C221">
+        <v>-0.44769999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1720</v>
+      </c>
+      <c r="C222">
+        <v>-0.34870000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1721</v>
+      </c>
+      <c r="C223">
+        <v>-0.4113</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1722</v>
+      </c>
+      <c r="C224">
+        <v>-0.29370000000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1723</v>
+      </c>
+      <c r="C225">
+        <v>-0.39979999999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1724</v>
+      </c>
+      <c r="C226">
+        <v>-0.373</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1725</v>
+      </c>
+      <c r="C227">
+        <v>-0.38740000000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1726</v>
+      </c>
+      <c r="C228">
+        <v>-0.36870000000000003</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1727</v>
+      </c>
+      <c r="C229">
+        <v>-0.36909999999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1728</v>
+      </c>
+      <c r="C230">
+        <v>-0.3574</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1729</v>
+      </c>
+      <c r="C231">
+        <v>-0.33289999999999997</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1730</v>
+      </c>
+      <c r="C232">
+        <v>-0.36809999999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1731</v>
+      </c>
+      <c r="C233">
+        <v>-0.43590000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1732</v>
+      </c>
+      <c r="C234">
+        <v>-0.38069999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1733</v>
+      </c>
+      <c r="C235">
+        <v>-0.40710000000000002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1734</v>
+      </c>
+      <c r="C236">
+        <v>-0.33090000000000003</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1735</v>
+      </c>
+      <c r="C237">
+        <v>-0.41289999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1736</v>
+      </c>
+      <c r="C238">
+        <v>-0.41649999999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1737</v>
+      </c>
+      <c r="C239">
+        <v>-0.42080000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1738</v>
+      </c>
+      <c r="C240">
+        <v>-0.43359999999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1739</v>
+      </c>
+      <c r="C241">
+        <v>-0.35449999999999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1740</v>
+      </c>
+      <c r="C242">
+        <v>-0.44169999999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1741</v>
+      </c>
+      <c r="C243">
+        <v>-0.39179999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1742</v>
+      </c>
+      <c r="C244">
+        <v>-0.52890000000000004</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1743</v>
+      </c>
+      <c r="C245">
+        <v>-0.4002</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1744</v>
+      </c>
+      <c r="C246">
+        <v>-0.42670000000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1745</v>
+      </c>
+      <c r="C247">
+        <v>-0.4929</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1746</v>
+      </c>
+      <c r="C248">
+        <v>-0.50849999999999995</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1747</v>
+      </c>
+      <c r="C249">
+        <v>-0.36009999999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1748</v>
+      </c>
+      <c r="C250">
+        <v>-0.3725</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1749</v>
+      </c>
+      <c r="C251">
+        <v>-0.40570000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1750</v>
+      </c>
+      <c r="C252">
+        <v>-0.39879999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1751</v>
+      </c>
+      <c r="C253">
+        <v>-0.41849999999999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1752</v>
+      </c>
+      <c r="C254">
+        <v>-0.40250000000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1753</v>
+      </c>
+      <c r="C255">
+        <v>-0.40610000000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1754</v>
+      </c>
+      <c r="C256">
+        <v>-0.4471</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1755</v>
+      </c>
+      <c r="C257">
+        <v>-0.43559999999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1756</v>
+      </c>
+      <c r="C258">
+        <v>-0.35170000000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1757</v>
+      </c>
+      <c r="C259">
+        <v>-0.36209999999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1758</v>
+      </c>
+      <c r="C260">
+        <v>-0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1759</v>
+      </c>
+      <c r="C261">
+        <v>-0.3569</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1760</v>
+      </c>
+      <c r="C262">
+        <v>-0.3695</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1761</v>
+      </c>
+      <c r="C263">
+        <v>-0.33150000000000002</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1762</v>
+      </c>
+      <c r="C264">
+        <v>-0.35389999999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1763</v>
+      </c>
+      <c r="C265">
+        <v>-0.32419999999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1764</v>
+      </c>
+      <c r="C266">
+        <v>-0.38519999999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1765</v>
+      </c>
+      <c r="C267">
+        <v>-0.32890000000000003</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1766</v>
+      </c>
+      <c r="C268">
+        <v>-0.31190000000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1767</v>
+      </c>
+      <c r="C269">
+        <v>-0.34389999999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1768</v>
+      </c>
+      <c r="C270">
+        <v>-0.46970000000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1769</v>
+      </c>
+      <c r="C271">
+        <v>-0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1770</v>
+      </c>
+      <c r="C272">
+        <v>-0.36220000000000002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1771</v>
+      </c>
+      <c r="C273">
+        <v>-0.37809999999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1772</v>
+      </c>
+      <c r="C274">
+        <v>-0.40079999999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1773</v>
+      </c>
+      <c r="C275">
+        <v>-0.3024</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1774</v>
+      </c>
+      <c r="C276">
+        <v>-0.2636</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1775</v>
+      </c>
+      <c r="C277">
+        <v>-0.36969999999999997</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>1776</v>
+      </c>
+      <c r="C278">
+        <v>-0.29970000000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1777</v>
+      </c>
+      <c r="C279">
+        <v>-0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>1778</v>
+      </c>
+      <c r="C280">
+        <v>-0.37780000000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1779</v>
+      </c>
+      <c r="C281">
+        <v>-0.38579999999999998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1780</v>
+      </c>
+      <c r="C282">
+        <v>-0.3841</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1781</v>
+      </c>
+      <c r="C283">
+        <v>-0.38340000000000002</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1782</v>
+      </c>
+      <c r="C284">
+        <v>-0.41749999999999998</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>1783</v>
+      </c>
+      <c r="C285">
+        <v>-0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>1784</v>
+      </c>
+      <c r="C286">
+        <v>-0.3977</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>1785</v>
+      </c>
+      <c r="C287">
+        <v>-0.37659999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1786</v>
+      </c>
+      <c r="C288">
+        <v>-0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1787</v>
+      </c>
+      <c r="C289">
+        <v>-0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1788</v>
+      </c>
+      <c r="C290">
+        <v>-0.39660000000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1789</v>
+      </c>
+      <c r="C291">
+        <v>-0.38840000000000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>1790</v>
+      </c>
+      <c r="C292">
+        <v>-0.46829999999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1791</v>
+      </c>
+      <c r="C293">
+        <v>-0.32569999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>1792</v>
+      </c>
+      <c r="C294">
+        <v>-0.29809999999999998</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>1793</v>
+      </c>
+      <c r="C295">
+        <v>-0.32469999999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>1794</v>
+      </c>
+      <c r="C296">
+        <v>-0.28889999999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>1795</v>
+      </c>
+      <c r="C297">
+        <v>-0.34689999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1796</v>
+      </c>
+      <c r="C298">
+        <v>-0.29220000000000002</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>1797</v>
+      </c>
+      <c r="C299">
+        <v>-0.37090000000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>1798</v>
+      </c>
+      <c r="C300">
+        <v>-0.2402</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>1799</v>
+      </c>
+      <c r="C301">
+        <v>-0.32640000000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>1800</v>
+      </c>
+      <c r="C302">
+        <v>-0.34870000000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>1801</v>
+      </c>
+      <c r="C303">
+        <v>-0.29089999999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>1802</v>
+      </c>
+      <c r="C304">
+        <v>-0.308</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>1803</v>
+      </c>
+      <c r="C305">
+        <v>-0.2369</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>1804</v>
+      </c>
+      <c r="C306">
+        <v>-0.18190000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>1805</v>
+      </c>
+      <c r="C307">
+        <v>-0.31119999999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>1806</v>
+      </c>
+      <c r="C308">
+        <v>-0.3508</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>1807</v>
+      </c>
+      <c r="C309">
+        <v>-0.2959</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>1808</v>
+      </c>
+      <c r="C310">
+        <v>-0.31680000000000003</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>1809</v>
+      </c>
+      <c r="C311">
+        <v>-0.50060000000000004</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>1810</v>
+      </c>
+      <c r="C312">
+        <v>-0.54490000000000005</v>
+      </c>
+      <c r="D312">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>1811</v>
+      </c>
+      <c r="C313">
+        <v>-0.46279999999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>1812</v>
+      </c>
+      <c r="C314">
+        <v>-0.51119999999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>1813</v>
+      </c>
+      <c r="C315">
+        <v>-0.4819</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>1814</v>
+      </c>
+      <c r="C316">
+        <v>-0.51559999999999995</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>1815</v>
+      </c>
+      <c r="C317">
+        <v>-0.57089999999999996</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>1816</v>
+      </c>
+      <c r="C318">
+        <v>-0.55789999999999995</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>1817</v>
+      </c>
+      <c r="C319">
+        <v>-0.52990000000000004</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>1818</v>
+      </c>
+      <c r="C320">
+        <v>-0.56679999999999997</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>1819</v>
+      </c>
+      <c r="C321">
+        <v>-0.53979999999999995</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>1820</v>
+      </c>
+      <c r="C322">
+        <v>-0.51190000000000002</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1821</v>
+      </c>
+      <c r="C323">
+        <v>-0.5595</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>1822</v>
+      </c>
+      <c r="C324">
+        <v>-0.47089999999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>1823</v>
+      </c>
+      <c r="C325">
+        <v>-0.38490000000000002</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>1824</v>
+      </c>
+      <c r="C326">
+        <v>-0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1825</v>
+      </c>
+      <c r="C327">
+        <v>-0.38890000000000002</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1826</v>
+      </c>
+      <c r="C328">
+        <v>-0.39179999999999998</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1827</v>
+      </c>
+      <c r="C329">
+        <v>-0.44469999999999998</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1828</v>
+      </c>
+      <c r="C330">
+        <v>-0.34420000000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>1829</v>
+      </c>
+      <c r="C331">
+        <v>-0.34610000000000002</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>1830</v>
+      </c>
+      <c r="C332">
+        <v>-0.37469999999999998</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>1831</v>
+      </c>
+      <c r="C333">
+        <v>-0.37369999999999998</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>1832</v>
+      </c>
+      <c r="C334">
+        <v>-0.47989999999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>1833</v>
+      </c>
+      <c r="C335">
+        <v>-0.4597</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>1834</v>
+      </c>
+      <c r="C336">
+        <v>-0.41160000000000002</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>1835</v>
+      </c>
+      <c r="C337">
+        <v>-0.52580000000000005</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>1836</v>
+      </c>
+      <c r="C338">
+        <v>-0.60550000000000004</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>1837</v>
+      </c>
+      <c r="C339">
+        <v>-0.58130000000000004</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>1838</v>
+      </c>
+      <c r="C340">
+        <v>-0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>1839</v>
+      </c>
+      <c r="C341">
+        <v>-0.47810000000000002</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>1840</v>
+      </c>
+      <c r="C342">
+        <v>-0.49590000000000001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>1841</v>
+      </c>
+      <c r="C343">
+        <v>-0.51939999999999997</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1842</v>
+      </c>
+      <c r="C344">
+        <v>-0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>1843</v>
+      </c>
+      <c r="C345">
+        <v>-0.55279999999999996</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>1844</v>
+      </c>
+      <c r="C346">
+        <v>-0.44879999999999998</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>1845</v>
+      </c>
+      <c r="C347">
+        <v>-0.5141</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>1846</v>
+      </c>
+      <c r="C348">
+        <v>-0.38619999999999999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>1847</v>
+      </c>
+      <c r="C349">
+        <v>-0.46389999999999998</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>1848</v>
+      </c>
+      <c r="C350">
+        <v>-0.43880000000000002</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>1849</v>
+      </c>
+      <c r="C351">
+        <v>-0.53680000000000005</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>1850</v>
+      </c>
+      <c r="B352">
+        <v>-0.48</v>
+      </c>
+      <c r="C352">
+        <v>-0.45750000000000002</v>
+      </c>
+      <c r="D352">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>1851</v>
+      </c>
+      <c r="B353">
+        <v>-0.19</v>
+      </c>
+      <c r="C353">
+        <v>-0.40360000000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>1852</v>
+      </c>
+      <c r="B354">
+        <v>-0.04</v>
+      </c>
+      <c r="C354">
+        <v>-0.30630000000000002</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>1853</v>
+      </c>
+      <c r="B355">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C355">
+        <v>-0.3508</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>1854</v>
+      </c>
+      <c r="B356">
+        <v>-0.3</v>
+      </c>
+      <c r="C356">
+        <v>-0.40110000000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>1855</v>
+      </c>
+      <c r="B357">
+        <v>-0.09</v>
+      </c>
+      <c r="C357">
+        <v>-0.3896</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>1856</v>
+      </c>
+      <c r="B358">
+        <v>0.16</v>
+      </c>
+      <c r="C358">
+        <v>-0.47660000000000002</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>1857</v>
+      </c>
+      <c r="B359">
+        <v>-0.16</v>
+      </c>
+      <c r="C359">
+        <v>-0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>1858</v>
+      </c>
+      <c r="B360">
+        <v>-0.15</v>
+      </c>
+      <c r="C360">
+        <v>-0.41489999999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>1859</v>
+      </c>
+      <c r="B361">
+        <v>-0.17</v>
+      </c>
+      <c r="C361">
+        <v>-0.48180000000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>1860</v>
+      </c>
+      <c r="B362">
+        <v>-0.16</v>
+      </c>
+      <c r="C362">
+        <v>-0.41420000000000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>1861</v>
+      </c>
+      <c r="B363">
+        <v>-0.65</v>
+      </c>
+      <c r="C363">
+        <v>-0.38069999999999998</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>1862</v>
+      </c>
+      <c r="B364">
+        <v>-0.46</v>
+      </c>
+      <c r="C364">
+        <v>-0.47210000000000002</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>1863</v>
+      </c>
+      <c r="B365">
+        <v>-0.15</v>
+      </c>
+      <c r="C365">
+        <v>-0.4219</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>1864</v>
+      </c>
+      <c r="B366">
+        <v>-0.35</v>
+      </c>
+      <c r="C366">
+        <v>-0.45889999999999997</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>1865</v>
+      </c>
+      <c r="B367">
+        <v>0.13</v>
+      </c>
+      <c r="C367">
+        <v>-0.4466</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>1866</v>
+      </c>
+      <c r="B368">
+        <v>0.01</v>
+      </c>
+      <c r="C368">
+        <v>-0.4526</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>1867</v>
+      </c>
+      <c r="B369">
+        <v>-0.17</v>
+      </c>
+      <c r="C369">
+        <v>-0.4279</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>1868</v>
+      </c>
+      <c r="B370">
+        <v>-0.38</v>
+      </c>
+      <c r="C370">
+        <v>-0.34810000000000002</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>1869</v>
+      </c>
+      <c r="B371">
+        <v>0.04</v>
+      </c>
+      <c r="C371">
+        <v>-0.41839999999999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>1870</v>
+      </c>
+      <c r="B372">
+        <v>-0.15</v>
+      </c>
+      <c r="C372">
+        <v>-0.37359999999999999</v>
+      </c>
+      <c r="D372">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>1871</v>
+      </c>
+      <c r="B373">
+        <v>-0.35</v>
+      </c>
+      <c r="C373">
+        <v>-0.40960000000000002</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>1872</v>
+      </c>
+      <c r="B374">
+        <v>-0.27</v>
+      </c>
+      <c r="C374">
+        <v>-0.35570000000000002</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>1873</v>
+      </c>
+      <c r="B375">
+        <v>-0.2</v>
+      </c>
+      <c r="C375">
+        <v>-0.36070000000000002</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>1874</v>
+      </c>
+      <c r="B376">
+        <v>-0.21</v>
+      </c>
+      <c r="C376">
+        <v>-0.39240000000000003</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>1875</v>
+      </c>
+      <c r="B377">
+        <v>-0.12</v>
+      </c>
+      <c r="C377">
+        <v>-0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>1876</v>
+      </c>
+      <c r="B378">
+        <v>-0.23</v>
+      </c>
+      <c r="C378">
+        <v>-0.35970000000000002</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>1877</v>
+      </c>
+      <c r="B379">
+        <v>-0.09</v>
+      </c>
+      <c r="C379">
+        <v>-0.28639999999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>1878</v>
+      </c>
+      <c r="B380">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C380">
+        <v>-0.23280000000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>1879</v>
+      </c>
+      <c r="B381">
+        <v>-0.05</v>
+      </c>
+      <c r="C381">
+        <v>-0.35649999999999998</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>1880</v>
+      </c>
+      <c r="B382">
+        <v>-0.31</v>
+      </c>
+      <c r="C382">
+        <v>-0.41189999999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>1881</v>
+      </c>
+      <c r="B383">
+        <v>-0.11</v>
+      </c>
+      <c r="C383">
+        <v>-0.36930000000000002</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>1882</v>
+      </c>
+      <c r="B384">
+        <v>0.1</v>
+      </c>
+      <c r="C384">
+        <v>-0.34279999999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>1883</v>
+      </c>
+      <c r="B385">
+        <v>-0.19</v>
+      </c>
+      <c r="C385">
+        <v>-0.3659</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>1884</v>
+      </c>
+      <c r="B386">
+        <v>-0.22</v>
+      </c>
+      <c r="C386">
+        <v>-0.48159999999999997</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>1885</v>
+      </c>
+      <c r="B387">
+        <v>-0.41</v>
+      </c>
+      <c r="C387">
+        <v>-0.44519999999999998</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>1886</v>
+      </c>
+      <c r="B388">
+        <v>-0.3</v>
+      </c>
+      <c r="C388">
+        <v>-0.37109999999999999</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>1887</v>
+      </c>
+      <c r="B389">
+        <v>-0.65</v>
+      </c>
+      <c r="C389">
+        <v>-0.43030000000000002</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>1888</v>
+      </c>
+      <c r="B390">
+        <v>-0.15</v>
+      </c>
+      <c r="C390">
+        <v>-0.3246</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>1889</v>
+      </c>
+      <c r="B391">
+        <v>0.06</v>
+      </c>
+      <c r="C391">
+        <v>-0.28129999999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>1890</v>
+      </c>
+      <c r="B392">
+        <v>-0.34</v>
+      </c>
+      <c r="C392">
+        <v>-0.37569999999999998</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>1891</v>
+      </c>
+      <c r="B393">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="C393">
+        <v>-0.33789999999999998</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>1892</v>
+      </c>
+      <c r="B394">
+        <v>-0.19</v>
+      </c>
+      <c r="C394">
+        <v>-0.44280000000000003</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>1893</v>
+      </c>
+      <c r="B395">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="C395">
+        <v>-0.4118</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>1894</v>
+      </c>
+      <c r="B396">
+        <v>-0.54</v>
+      </c>
+      <c r="C396">
+        <v>-0.35170000000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>1895</v>
+      </c>
+      <c r="B397">
+        <v>-0.34</v>
+      </c>
+      <c r="C397">
+        <v>-0.34689999999999999</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>1896</v>
+      </c>
+      <c r="B398">
+        <v>-0.18</v>
+      </c>
+      <c r="C398">
+        <v>-0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>1897</v>
+      </c>
+      <c r="B399">
+        <v>-0.1</v>
+      </c>
+      <c r="C399">
+        <v>-0.24210000000000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>1898</v>
+      </c>
+      <c r="B400">
+        <v>-0.23</v>
+      </c>
+      <c r="C400">
+        <v>-0.28370000000000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>1899</v>
+      </c>
+      <c r="B401">
+        <v>-0.31</v>
+      </c>
+      <c r="C401">
+        <v>-0.35949999999999999</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>1900</v>
+      </c>
+      <c r="B402">
+        <v>-0.27</v>
+      </c>
+      <c r="C402">
+        <v>-0.24790000000000001</v>
+      </c>
+      <c r="D402">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>1901</v>
+      </c>
+      <c r="B403">
+        <v>-0.2</v>
+      </c>
+      <c r="C403">
+        <v>-0.23380000000000001</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>1902</v>
+      </c>
+      <c r="B404">
+        <v>-0.18</v>
+      </c>
+      <c r="C404">
+        <v>-0.34860000000000002</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>1903</v>
+      </c>
+      <c r="B405">
+        <v>-0.21</v>
+      </c>
+      <c r="C405">
+        <v>-0.38429999999999997</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>1904</v>
+      </c>
+      <c r="B406">
+        <v>-0.6</v>
+      </c>
+      <c r="C406">
+        <v>-0.35249999999999998</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>1905</v>
+      </c>
+      <c r="B407">
+        <v>-0.31</v>
+      </c>
+      <c r="C407">
+        <v>-0.35870000000000002</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>1906</v>
+      </c>
+      <c r="B408">
+        <v>-0.31</v>
+      </c>
+      <c r="C408">
+        <v>-0.33179999999999998</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>1907</v>
+      </c>
+      <c r="B409">
+        <v>-0.31</v>
+      </c>
+      <c r="C409">
+        <v>-0.4249</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>1908</v>
+      </c>
+      <c r="B410">
+        <v>-0.48</v>
+      </c>
+      <c r="C410">
+        <v>-0.34689999999999999</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>1909</v>
+      </c>
+      <c r="B411">
+        <v>-0.67</v>
+      </c>
+      <c r="C411">
+        <v>-0.43909999999999999</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>1910</v>
+      </c>
+      <c r="B412">
+        <v>-0.36</v>
+      </c>
+      <c r="C412">
+        <v>-0.44979999999999998</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>1911</v>
+      </c>
+      <c r="B413">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="C413">
+        <v>-0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>1912</v>
+      </c>
+      <c r="B414">
+        <v>-0.3</v>
+      </c>
+      <c r="C414">
+        <v>-0.4209</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>1913</v>
+      </c>
+      <c r="B415">
+        <v>-0.37</v>
+      </c>
+      <c r="C415">
+        <v>-0.37659999999999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>1914</v>
+      </c>
+      <c r="B416">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C416">
+        <v>-0.31850000000000001</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>1915</v>
+      </c>
+      <c r="B417">
+        <v>-0.15</v>
+      </c>
+      <c r="C417">
+        <v>-0.28270000000000001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>1916</v>
+      </c>
+      <c r="B418">
+        <v>-0.13</v>
+      </c>
+      <c r="C418">
+        <v>-0.39629999999999999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>1917</v>
+      </c>
+      <c r="B419">
+        <v>-0.53</v>
+      </c>
+      <c r="C419">
+        <v>-0.40289999999999998</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>1918</v>
+      </c>
+      <c r="B420">
+        <v>-0.49</v>
+      </c>
+      <c r="C420">
+        <v>-0.34079999999999999</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>1919</v>
+      </c>
+      <c r="B421">
+        <v>-0.06</v>
+      </c>
+      <c r="C421">
+        <v>-0.30520000000000003</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>1920</v>
+      </c>
+      <c r="B422">
+        <v>-0.17</v>
+      </c>
+      <c r="C422">
+        <v>-0.28370000000000001</v>
+      </c>
+      <c r="D422">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>1921</v>
+      </c>
+      <c r="B423">
+        <v>-0.11</v>
+      </c>
+      <c r="C423">
+        <v>-0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>1922</v>
+      </c>
+      <c r="B424">
+        <v>-0.19</v>
+      </c>
+      <c r="C424">
+        <v>-0.25490000000000002</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>1923</v>
+      </c>
+      <c r="B425">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="C425">
+        <v>-0.2545</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>1924</v>
+      </c>
+      <c r="B426">
+        <v>-0.17</v>
+      </c>
+      <c r="C426">
+        <v>-0.2268</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>1925</v>
+      </c>
+      <c r="B427">
+        <v>-0.42</v>
+      </c>
+      <c r="C427">
+        <v>-0.19350000000000001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>1926</v>
+      </c>
+      <c r="B428">
+        <v>0.16</v>
+      </c>
+      <c r="C428">
+        <v>-0.18679999999999999</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>1927</v>
+      </c>
+      <c r="B429">
+        <v>-0.26</v>
+      </c>
+      <c r="C429">
+        <v>-0.22789999999999999</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>1928</v>
+      </c>
+      <c r="B430">
+        <v>-0.08</v>
+      </c>
+      <c r="C430">
+        <v>-0.2407</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>1929</v>
+      </c>
+      <c r="B431">
+        <v>-0.35</v>
+      </c>
+      <c r="C431">
+        <v>-0.24210000000000001</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>1930</v>
+      </c>
+      <c r="B432">
+        <v>-0.32</v>
+      </c>
+      <c r="C432">
+        <v>-0.10680000000000001</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>1931</v>
+      </c>
+      <c r="B433">
+        <v>-0.02</v>
+      </c>
+      <c r="C433">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>1932</v>
+      </c>
+      <c r="B434">
+        <v>0.12</v>
+      </c>
+      <c r="C434">
+        <v>-0.1517</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>1933</v>
+      </c>
+      <c r="B435">
+        <v>-0.16</v>
+      </c>
+      <c r="C435">
+        <v>-0.18279999999999999</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>1934</v>
+      </c>
+      <c r="B436">
+        <v>-0.26</v>
+      </c>
+      <c r="C436">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>1935</v>
+      </c>
+      <c r="B437">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="C437">
+        <v>-0.1159</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>1936</v>
+      </c>
+      <c r="B438">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="C438">
+        <v>-7.22E-2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>1937</v>
+      </c>
+      <c r="B439">
+        <v>-0.06</v>
+      </c>
+      <c r="C439">
+        <v>-3.1699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>1938</v>
+      </c>
+      <c r="B440">
+        <v>0.03</v>
+      </c>
+      <c r="C440">
+        <v>-3.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>1939</v>
+      </c>
+      <c r="B441">
+        <v>-0.06</v>
+      </c>
+      <c r="C441">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>1940</v>
+      </c>
+      <c r="B442">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C442">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="D442">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>1941</v>
+      </c>
+      <c r="B443">
+        <v>0.19</v>
+      </c>
+      <c r="C443">
+        <v>-4.5400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>1942</v>
+      </c>
+      <c r="B444">
+        <v>0.31</v>
+      </c>
+      <c r="C444">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>1943</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>-1.43E-2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>1944</v>
+      </c>
+      <c r="B446">
+        <v>0.32</v>
+      </c>
+      <c r="C446">
+        <v>-2.93E-2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>1945</v>
+      </c>
+      <c r="B447">
+        <v>0.21</v>
+      </c>
+      <c r="C447">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>1946</v>
+      </c>
+      <c r="B448">
+        <v>0.19</v>
+      </c>
+      <c r="C448">
+        <v>-5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>1947</v>
+      </c>
+      <c r="B449">
+        <v>0.01</v>
+      </c>
+      <c r="C449">
+        <v>-7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>1948</v>
+      </c>
+      <c r="B450">
+        <v>0.01</v>
+      </c>
+      <c r="C450">
+        <v>-6.2899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>1949</v>
+      </c>
+      <c r="B451">
+        <v>0.09</v>
+      </c>
+      <c r="C451">
+        <v>-0.1246</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>1950</v>
+      </c>
+      <c r="B452">
+        <v>-0.2</v>
+      </c>
+      <c r="C452">
+        <v>-3.6600000000000001E-2</v>
+      </c>
+      <c r="D452">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>1951</v>
+      </c>
+      <c r="B453">
+        <v>-0.32</v>
+      </c>
+      <c r="C453">
+        <v>-9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>1952</v>
+      </c>
+      <c r="B454">
+        <v>0.15</v>
+      </c>
+      <c r="C454">
+        <v>-1.95E-2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>1953</v>
+      </c>
+      <c r="B455">
+        <v>0.09</v>
+      </c>
+      <c r="C455">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>1954</v>
+      </c>
+      <c r="B456">
+        <v>-0.17</v>
+      </c>
+      <c r="C456">
+        <v>-2.0400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>1955</v>
+      </c>
+      <c r="B457">
+        <v>0.13</v>
+      </c>
+      <c r="C457">
+        <v>-3.9300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>1956</v>
+      </c>
+      <c r="B458">
+        <v>-0.08</v>
+      </c>
+      <c r="C458">
+        <v>-0.1278</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>1957</v>
+      </c>
+      <c r="B459">
+        <v>-0.04</v>
+      </c>
+      <c r="C459">
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>1958</v>
+      </c>
+      <c r="B460">
+        <v>0.36</v>
+      </c>
+      <c r="C460">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>1959</v>
+      </c>
+      <c r="B461">
+        <v>0.13</v>
+      </c>
+      <c r="C461">
+        <v>-1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>1960</v>
+      </c>
+      <c r="B462">
+        <v>0.05</v>
+      </c>
+      <c r="C462">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="D462">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>1961</v>
+      </c>
+      <c r="B463">
+        <v>0.11</v>
+      </c>
+      <c r="C463">
+        <v>-2.7199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>1962</v>
+      </c>
+      <c r="B464">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C464">
+        <v>-5.28E-2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>1963</v>
+      </c>
+      <c r="B465">
+        <v>0.02</v>
+      </c>
+      <c r="C465">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>1964</v>
+      </c>
+      <c r="B466">
+        <v>-0.05</v>
+      </c>
+      <c r="C466">
+        <v>-0.13020000000000001</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>1965</v>
+      </c>
+      <c r="B467">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C467">
+        <v>-0.1208</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>1966</v>
+      </c>
+      <c r="B468">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C468">
+        <v>-4.7899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>1967</v>
+      </c>
+      <c r="B469">
+        <v>-0.09</v>
+      </c>
+      <c r="C469">
+        <v>-5.1799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>1968</v>
+      </c>
+      <c r="B470">
+        <v>-0.21</v>
+      </c>
+      <c r="C470">
+        <v>-0.1118</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>1969</v>
+      </c>
+      <c r="B471">
+        <v>-0.06</v>
+      </c>
+      <c r="C471">
+        <v>2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>1970</v>
+      </c>
+      <c r="B472">
+        <v>0.18</v>
+      </c>
+      <c r="C472">
+        <v>-6.93E-2</v>
+      </c>
+      <c r="D472">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>1971</v>
+      </c>
+      <c r="B473">
+        <v>-0.03</v>
+      </c>
+      <c r="C473">
+        <v>-0.12280000000000001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>1972</v>
+      </c>
+      <c r="B474">
+        <v>-0.19</v>
+      </c>
+      <c r="C474">
+        <v>-7.3899999999999993E-2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>1973</v>
+      </c>
+      <c r="B475">
+        <v>0.31</v>
+      </c>
+      <c r="C475">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>1974</v>
+      </c>
+      <c r="B476">
+        <v>-0.08</v>
+      </c>
+      <c r="C476">
+        <v>-9.7600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>1975</v>
+      </c>
+      <c r="B477">
+        <v>0.05</v>
+      </c>
+      <c r="C477">
+        <v>-0.1701</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>1976</v>
+      </c>
+      <c r="B478">
+        <v>-0.01</v>
+      </c>
+      <c r="C478">
+        <v>-6.0400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>1977</v>
+      </c>
+      <c r="B479">
+        <v>0.25</v>
+      </c>
+      <c r="C479">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>1978</v>
+      </c>
+      <c r="B480">
+        <v>0.12</v>
+      </c>
+      <c r="C480">
+        <v>-4.19E-2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>1979</v>
+      </c>
+      <c r="B481">
+        <v>0.16</v>
+      </c>
+      <c r="C481">
+        <v>0.10059999999999999</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>1980</v>
+      </c>
+      <c r="B482">
+        <v>0.37</v>
+      </c>
+      <c r="C482">
+        <v>0.1082</v>
+      </c>
+      <c r="D482">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>1981</v>
+      </c>
+      <c r="B483">
+        <v>0.52</v>
+      </c>
+      <c r="C483">
+        <v>8.7900000000000006E-2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>1982</v>
+      </c>
+      <c r="B484">
+        <v>0.1</v>
+      </c>
+      <c r="C484">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>1983</v>
+      </c>
+      <c r="B485">
+        <v>0.49</v>
+      </c>
+      <c r="C485">
+        <v>6.0199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>1984</v>
+      </c>
+      <c r="B486">
+        <v>0.3</v>
+      </c>
+      <c r="C486">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>1985</v>
+      </c>
+      <c r="B487">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C487">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>1986</v>
+      </c>
+      <c r="B488">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C488">
+        <v>6.9699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>1987</v>
+      </c>
+      <c r="B489">
+        <v>0.34</v>
+      </c>
+      <c r="C489">
+        <v>7.3099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>1988</v>
+      </c>
+      <c r="B490">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C490">
+        <v>0.18920000000000001</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>1989</v>
+      </c>
+      <c r="B491">
+        <v>0.1</v>
+      </c>
+      <c r="C491">
+        <v>0.1978</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>1990</v>
+      </c>
+      <c r="B492">
+        <v>0.39</v>
+      </c>
+      <c r="C492">
+        <v>0.2359</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>1991</v>
+      </c>
+      <c r="B493">
+        <v>0.4</v>
+      </c>
+      <c r="C493">
+        <v>0.28039999999999998</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>1992</v>
+      </c>
+      <c r="B494">
+        <v>0.44</v>
+      </c>
+      <c r="C494">
+        <v>0.1739</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>1993</v>
+      </c>
+      <c r="B495">
+        <v>0.33</v>
+      </c>
+      <c r="C495">
+        <v>0.15310000000000001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>1994</v>
+      </c>
+      <c r="B496">
+        <v>0.23</v>
+      </c>
+      <c r="C496">
+        <v>0.3463</v>
+      </c>
+      <c r="D496">
+        <v>9791.4230000000007</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>1995</v>
+      </c>
+      <c r="B497">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C497">
+        <v>0.2331</v>
+      </c>
+      <c r="D497">
+        <v>9949.6679999999997</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>1996</v>
+      </c>
+      <c r="B498">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C498">
+        <v>0.2445</v>
+      </c>
+      <c r="D498">
+        <v>10175.511</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>1997</v>
+      </c>
+      <c r="B499">
+        <v>0.27</v>
+      </c>
+      <c r="C499">
+        <v>0.30620000000000003</v>
+      </c>
+      <c r="D499">
+        <v>10418.802</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>1998</v>
+      </c>
+      <c r="B500">
+        <v>0.59</v>
+      </c>
+      <c r="C500">
+        <v>0.43919999999999998</v>
+      </c>
+      <c r="D500">
+        <v>10526.853999999999</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>1999</v>
+      </c>
+      <c r="B501">
+        <v>0.47</v>
+      </c>
+      <c r="C501">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D501">
+        <v>10749.005999999999</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>2000</v>
+      </c>
+      <c r="B502">
+        <v>0.32</v>
+      </c>
+      <c r="C502">
+        <v>0.27510000000000001</v>
+      </c>
+      <c r="D502">
+        <v>11108.324000000001</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>2001</v>
+      </c>
+      <c r="B503">
+        <v>0.45</v>
+      </c>
+      <c r="D503">
+        <v>11215.04</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>2002</v>
+      </c>
+      <c r="B504">
+        <v>0.68</v>
+      </c>
+      <c r="D504">
+        <v>11367.638999999999</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>2003</v>
+      </c>
+      <c r="B505">
+        <v>0.72</v>
+      </c>
+      <c r="D505">
+        <v>11637.828</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>2004</v>
+      </c>
+      <c r="B506">
+        <v>0.62</v>
+      </c>
+      <c r="D506">
+        <v>12074.206</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>2005</v>
+      </c>
+      <c r="B507">
+        <v>0.76</v>
+      </c>
+      <c r="D507">
+        <v>12463.141</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>2006</v>
+      </c>
+      <c r="B508">
+        <v>0.6</v>
+      </c>
+      <c r="D508">
+        <v>12933.736000000001</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>2007</v>
+      </c>
+      <c r="B509">
+        <v>0.92</v>
+      </c>
+      <c r="D509">
+        <v>13428.616</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>2008</v>
+      </c>
+      <c r="B510">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D510">
+        <v>13622.655000000001</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>2009</v>
+      </c>
+      <c r="B511">
+        <v>0.67</v>
+      </c>
+      <c r="D511">
+        <v>13359.558000000001</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>2010</v>
+      </c>
+      <c r="B512">
+        <v>0.77</v>
+      </c>
+      <c r="D512">
+        <v>13868.406000000001</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>2011</v>
+      </c>
+      <c r="B513">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D513">
+        <v>14230.718999999999</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514">
         <v>2012</v>
       </c>
-      <c r="C208">
+      <c r="B514">
         <v>0.51</v>
       </c>
-      <c r="D208">
+      <c r="D514">
         <v>14504.989</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515">
         <v>2013</v>
       </c>
-      <c r="C209">
+      <c r="B515">
         <v>0.69</v>
       </c>
-      <c r="D209">
+      <c r="D515">
         <v>14789.621999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516">
         <v>2014</v>
       </c>
-      <c r="C210">
+      <c r="B516">
         <v>0.75</v>
       </c>
-      <c r="D210">
+      <c r="D516">
         <v>15112.653</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517">
         <v>2015</v>
       </c>
-      <c r="C211">
+      <c r="B517">
         <v>0.84</v>
       </c>
-      <c r="D211">
+      <c r="D517">
         <v>15433.18</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518">
         <v>2016</v>
       </c>
-      <c r="C212">
+      <c r="B518">
         <v>1.21</v>
       </c>
-      <c r="D212">
+      <c r="D518">
         <v>15750.084000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519">
         <v>2017</v>
       </c>
-      <c r="C213">
+      <c r="B519">
         <v>1.05</v>
       </c>
-      <c r="D213">
+      <c r="D519">
         <v>16156.353999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520">
         <v>2018</v>
       </c>
-      <c r="C214">
+      <c r="B520">
         <v>0.84</v>
       </c>
-      <c r="D214">
+      <c r="D520">
         <v>16558.998</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521">
         <v>2019</v>
       </c>
-      <c r="C215">
+      <c r="B521">
         <v>0.92</v>
       </c>
-      <c r="D215">
+      <c r="D521">
         <v>16847.46</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522">
         <v>2020</v>
       </c>
-      <c r="C216">
+      <c r="B522">
         <v>1.1599999999999999</v>
       </c>
-      <c r="D216">
+      <c r="D522">
         <v>16175.776</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523">
         <v>2021</v>
       </c>
-      <c r="C217">
+      <c r="B523">
         <v>0.84</v>
       </c>
-      <c r="D217">
+      <c r="D523">
         <v>16997.134999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524">
         <v>2022</v>
       </c>
-      <c r="C218">
+      <c r="B524">
         <v>0.92</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525">
         <v>2023</v>
       </c>
-      <c r="C219">
+      <c r="B525">
         <v>0.89</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526">
         <v>2024</v>
       </c>
-      <c r="C220">
+      <c r="B526">
         <v>1.27</v>
       </c>
     </row>

--- a/notebooks/gdp_lecture/Temperature Anomaly.xlsx
+++ b/notebooks/gdp_lecture/Temperature Anomaly.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d65c42c8339c1928/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{4FDCF9DD-E799-42AB-8D38-B2ED7453A9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB5BA481-DE4A-47EB-9E92-71D71831A24F}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{4FDCF9DD-E799-42AB-8D38-B2ED7453A9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45023C54-7697-4033-9BCE-F3710CCF2AF4}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="705" windowWidth="20370" windowHeight="20175" activeTab="1" xr2:uid="{45334900-0F21-4BB3-84C6-513C5D815AB2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{45334900-0F21-4BB3-84C6-513C5D815AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Year</t>
   </si>
@@ -140,10 +141,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,9 +466,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1507.2941176470499</v>
       </c>
@@ -496,7 +493,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1510.11764705882</v>
       </c>
@@ -504,7 +501,7 @@
         <v>-0.29199999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1515.76470588235</v>
       </c>
@@ -512,7 +509,7 @@
         <v>-0.30199999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>1518.5882352941101</v>
       </c>
@@ -520,7 +517,7 @@
         <v>-0.28599999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>1521.4117647058799</v>
       </c>
@@ -528,7 +525,7 @@
         <v>-0.26800000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>1527.99999999999</v>
       </c>
@@ -536,7 +533,7 @@
         <v>-0.24399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>1536.4705882352901</v>
       </c>
@@ -544,7 +541,7 @@
         <v>-0.23599999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>1549.64705882352</v>
       </c>
@@ -552,7 +549,7 @@
         <v>-0.22800000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>1563.76470588235</v>
       </c>
@@ -560,7 +557,7 @@
         <v>-0.23400000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>1572.23529411764</v>
       </c>
@@ -568,7 +565,7 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>1580.7058823529401</v>
       </c>
@@ -576,7 +573,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>1591.99999999999</v>
       </c>
@@ -587,7 +584,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>1609.88235294117</v>
       </c>
@@ -595,7 +592,7 @@
         <v>-0.29799999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>1623.0588235294099</v>
       </c>
@@ -603,7 +600,7 @@
         <v>-0.29399999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>1634.35294117647</v>
       </c>
@@ -611,7 +608,7 @@
         <v>-0.29399999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>1648.4705882352901</v>
       </c>
@@ -619,7 +616,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>1662.5882352941101</v>
       </c>
@@ -627,7 +624,7 @@
         <v>-0.27400000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>1672.9411764705801</v>
       </c>
@@ -635,7 +632,7 @@
         <v>-0.29799999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>1678.5882352941101</v>
       </c>
@@ -643,7 +640,7 @@
         <v>-0.32200000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>1686.11764705882</v>
       </c>
@@ -651,7 +648,7 @@
         <v>-0.33600000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>1696.4705882352901</v>
       </c>
@@ -659,7 +656,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>1702.11764705882</v>
       </c>
@@ -670,7 +667,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>1704.9411764705801</v>
       </c>
@@ -678,7 +675,7 @@
         <v>-0.25800000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>1711.5294117646999</v>
       </c>
@@ -686,7 +683,7 @@
         <v>-0.23599999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>1722.8235294117601</v>
       </c>
@@ -694,7 +691,7 @@
         <v>-0.213999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>1736</v>
       </c>
@@ -702,7 +699,7 @@
         <v>-0.22</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>1748.23529411764</v>
       </c>
@@ -710,7 +707,7 @@
         <v>-0.24199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>1758.5882352941101</v>
       </c>
@@ -718,7 +715,7 @@
         <v>-0.23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>1770.8235294117601</v>
       </c>
@@ -726,7 +723,7 @@
         <v>-0.213999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>1780.23529411764</v>
       </c>
@@ -734,7 +731,7 @@
         <v>-0.213999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>1789.64705882352</v>
       </c>
@@ -742,7 +739,7 @@
         <v>-0.23799999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>1799.0588235294099</v>
       </c>
@@ -750,7 +747,7 @@
         <v>-0.25600000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>1810.35294117647</v>
       </c>
@@ -761,7 +758,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>1819.76470588235</v>
       </c>
@@ -769,7 +766,7 @@
         <v>-0.26600000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>1826.35294117647</v>
       </c>
@@ -777,7 +774,7 @@
         <v>-0.28799999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>1832</v>
       </c>
@@ -785,7 +782,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>1840.4705882352901</v>
       </c>
@@ -793,7 +790,7 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1850</v>
       </c>
@@ -804,7 +801,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1851</v>
       </c>
@@ -812,7 +809,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1852</v>
       </c>
@@ -820,7 +817,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1853</v>
       </c>
@@ -828,7 +825,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1854</v>
       </c>
@@ -839,7 +836,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1855</v>
       </c>
@@ -847,7 +844,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1856</v>
       </c>
@@ -855,7 +852,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1857</v>
       </c>
@@ -863,7 +860,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1858</v>
       </c>
@@ -871,7 +868,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1859</v>
       </c>
@@ -879,7 +876,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1860</v>
       </c>
@@ -887,7 +884,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1861</v>
       </c>
@@ -895,7 +892,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1862</v>
       </c>
@@ -903,7 +900,7 @@
         <v>-0.46</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>1863</v>
       </c>
@@ -911,7 +908,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>1864</v>
       </c>
@@ -919,7 +916,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>1865</v>
       </c>
@@ -927,7 +924,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>1866</v>
       </c>
@@ -935,7 +932,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>1867</v>
       </c>
@@ -943,7 +940,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>1868</v>
       </c>
@@ -951,7 +948,7 @@
         <v>-0.38</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>1869</v>
       </c>
@@ -959,7 +956,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>1870</v>
       </c>
@@ -970,7 +967,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1871</v>
       </c>
@@ -978,7 +975,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>1872</v>
       </c>
@@ -986,7 +983,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>1873</v>
       </c>
@@ -994,7 +991,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>1874</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>1874.1663300569901</v>
       </c>
@@ -1010,7 +1007,7 @@
         <v>-0.21889250814332201</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>1875</v>
       </c>
@@ -1018,7 +1015,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>1876</v>
       </c>
@@ -1026,7 +1023,7 @@
         <v>-0.23</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>1877</v>
       </c>
@@ -1034,7 +1031,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>1878</v>
       </c>
@@ -1042,7 +1039,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>1879</v>
       </c>
@@ -1050,7 +1047,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>1880</v>
       </c>
@@ -1058,7 +1055,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>1881</v>
       </c>
@@ -1066,7 +1063,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>1882</v>
       </c>
@@ -1074,7 +1071,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>1883</v>
       </c>
@@ -1082,7 +1079,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>1884</v>
       </c>
@@ -1090,7 +1087,7 @@
         <v>-0.22</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>1885</v>
       </c>
@@ -1101,7 +1098,7 @@
         <v>-0.41</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>1886</v>
       </c>
@@ -1109,12 +1106,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>1886.03743099501</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>1887</v>
       </c>
@@ -1122,7 +1119,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>1888</v>
       </c>
@@ -1130,7 +1127,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>1889</v>
       </c>
@@ -1138,7 +1135,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>1890</v>
       </c>
@@ -1146,7 +1143,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>1891</v>
       </c>
@@ -1154,7 +1151,7 @@
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>1892</v>
       </c>
@@ -1162,7 +1159,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>1893</v>
       </c>
@@ -1170,7 +1167,7 @@
         <v>-0.55000000000000004</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>1894</v>
       </c>
@@ -1181,7 +1178,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>1895</v>
       </c>
@@ -1189,7 +1186,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>1896</v>
       </c>
@@ -1197,7 +1194,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>1897</v>
       </c>
@@ -1205,7 +1202,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>1898</v>
       </c>
@@ -1213,7 +1210,7 @@
         <v>-0.23</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>1899</v>
       </c>
@@ -1221,7 +1218,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>1900</v>
       </c>
@@ -1232,7 +1229,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>1901</v>
       </c>
@@ -1240,7 +1237,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>1902</v>
       </c>
@@ -1251,7 +1248,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>1903</v>
       </c>
@@ -1259,7 +1256,7 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>1904</v>
       </c>
@@ -1267,7 +1264,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>1905</v>
       </c>
@@ -1275,7 +1272,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>1906</v>
       </c>
@@ -1283,7 +1280,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>1907</v>
       </c>
@@ -1291,7 +1288,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>1908</v>
       </c>
@@ -1299,7 +1296,7 @@
         <v>-0.48</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>1909</v>
       </c>
@@ -1307,12 +1304,12 @@
         <v>-0.67</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>1909.0813328158699</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>1910</v>
       </c>
@@ -1320,7 +1317,7 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>1911</v>
       </c>
@@ -1328,7 +1325,7 @@
         <v>-0.56000000000000005</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>1912</v>
       </c>
@@ -1336,7 +1333,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>1913</v>
       </c>
@@ -1344,7 +1341,7 @@
         <v>-0.37</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>1914</v>
       </c>
@@ -1352,7 +1349,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>1915</v>
       </c>
@@ -1360,12 +1357,12 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>1915.3660333124701</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>1916</v>
       </c>
@@ -1373,7 +1370,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>1917</v>
       </c>
@@ -1381,7 +1378,7 @@
         <v>-0.53</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>1918</v>
       </c>
@@ -1389,7 +1386,7 @@
         <v>-0.49</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>1919</v>
       </c>
@@ -1400,7 +1397,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>1920</v>
       </c>
@@ -1411,7 +1408,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>1921</v>
       </c>
@@ -1422,7 +1419,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>1922</v>
       </c>
@@ -1430,7 +1427,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>1923</v>
       </c>
@@ -1438,7 +1435,7 @@
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>1924</v>
       </c>
@@ -1446,7 +1443,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>1925</v>
       </c>
@@ -1454,7 +1451,7 @@
         <v>-0.42</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>1926</v>
       </c>
@@ -1462,7 +1459,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>1927</v>
       </c>
@@ -1470,7 +1467,7 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>1928</v>
       </c>
@@ -1478,7 +1475,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>1929</v>
       </c>
@@ -1486,7 +1483,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>1930</v>
       </c>
@@ -1494,7 +1491,7 @@
         <v>-0.32</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>1931</v>
       </c>
@@ -1502,7 +1499,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>1932</v>
       </c>
@@ -1510,7 +1507,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>1933</v>
       </c>
@@ -1518,7 +1515,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>1934</v>
       </c>
@@ -1529,7 +1526,7 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>1935</v>
       </c>
@@ -1537,7 +1534,7 @@
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>1936</v>
       </c>
@@ -1545,7 +1542,7 @@
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>1937</v>
       </c>
@@ -1553,7 +1550,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>1938</v>
       </c>
@@ -1561,7 +1558,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>1939</v>
       </c>
@@ -1569,7 +1566,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>1940</v>
       </c>
@@ -1580,7 +1577,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>1941</v>
       </c>
@@ -1588,7 +1585,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>1942</v>
       </c>
@@ -1596,7 +1593,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>1943</v>
       </c>
@@ -1604,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>1944</v>
       </c>
@@ -1612,7 +1609,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>1945</v>
       </c>
@@ -1620,12 +1617,12 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>1945.48022319201</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>1946</v>
       </c>
@@ -1633,7 +1630,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>1947</v>
       </c>
@@ -1641,7 +1638,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>1948</v>
       </c>
@@ -1649,7 +1646,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>1949</v>
       </c>
@@ -1657,7 +1654,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>1950</v>
       </c>
@@ -1668,7 +1665,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>1951</v>
       </c>
@@ -1676,7 +1673,7 @@
         <v>-0.32</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>1952</v>
       </c>
@@ -1684,7 +1681,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>1953</v>
       </c>
@@ -1692,7 +1689,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>1954</v>
       </c>
@@ -1700,7 +1697,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>1955</v>
       </c>
@@ -1708,7 +1705,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>1956</v>
       </c>
@@ -1716,7 +1713,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>1957</v>
       </c>
@@ -1724,7 +1721,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>1958</v>
       </c>
@@ -1732,7 +1729,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>1959</v>
       </c>
@@ -1743,7 +1740,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>1960</v>
       </c>
@@ -1754,7 +1751,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>1961</v>
       </c>
@@ -1762,7 +1759,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>1962</v>
       </c>
@@ -1770,7 +1767,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>1963</v>
       </c>
@@ -1778,7 +1775,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>1964</v>
       </c>
@@ -1786,7 +1783,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>1965</v>
       </c>
@@ -1794,7 +1791,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>1966</v>
       </c>
@@ -1802,7 +1799,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>1967</v>
       </c>
@@ -1810,7 +1807,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>1968</v>
       </c>
@@ -1818,12 +1815,12 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>1968.4867160813401</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>1969</v>
       </c>
@@ -1831,7 +1828,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>1970</v>
       </c>
@@ -1842,7 +1839,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>1971</v>
       </c>
@@ -1850,7 +1847,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>1972</v>
       </c>
@@ -1858,7 +1855,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>1973</v>
       </c>
@@ -1866,7 +1863,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>1974</v>
       </c>
@@ -1874,7 +1871,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>1975</v>
       </c>
@@ -1882,7 +1879,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>1976</v>
       </c>
@@ -1893,7 +1890,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>1977</v>
       </c>
@@ -1901,7 +1898,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>1978</v>
       </c>
@@ -1909,7 +1906,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>1979</v>
       </c>
@@ -1917,7 +1914,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>1980</v>
       </c>
@@ -1928,7 +1925,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>1981</v>
       </c>
@@ -1936,7 +1933,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>1982</v>
       </c>
@@ -1944,7 +1941,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>1983</v>
       </c>
@@ -1952,7 +1949,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>1984</v>
       </c>
@@ -1960,7 +1957,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>1985</v>
       </c>
@@ -1968,7 +1965,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>1986</v>
       </c>
@@ -1976,7 +1973,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>1987</v>
       </c>
@@ -1984,7 +1981,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>1988</v>
       </c>
@@ -1992,7 +1989,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>1989</v>
       </c>
@@ -2000,7 +1997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>1990</v>
       </c>
@@ -2008,7 +2005,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>1991</v>
       </c>
@@ -2016,7 +2013,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>1992</v>
       </c>
@@ -2024,7 +2021,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>1993</v>
       </c>
@@ -2032,7 +2029,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>1994</v>
       </c>
@@ -2043,7 +2040,7 @@
         <v>9791.4230000000007</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>1995</v>
       </c>
@@ -2054,7 +2051,7 @@
         <v>9949.6679999999997</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>1996</v>
       </c>
@@ -2065,7 +2062,7 @@
         <v>10175.511</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>1997</v>
       </c>
@@ -2076,7 +2073,7 @@
         <v>10418.802</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>1998</v>
       </c>
@@ -2087,7 +2084,7 @@
         <v>10526.853999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>1999</v>
       </c>
@@ -2098,7 +2095,7 @@
         <v>10749.005999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>2000</v>
       </c>
@@ -2109,7 +2106,7 @@
         <v>11108.324000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>2001</v>
       </c>
@@ -2120,7 +2117,7 @@
         <v>11215.04</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>2002</v>
       </c>
@@ -2131,7 +2128,7 @@
         <v>11367.638999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>2003</v>
       </c>
@@ -2142,7 +2139,7 @@
         <v>11637.828</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>2004</v>
       </c>
@@ -2153,7 +2150,7 @@
         <v>12074.206</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>2005</v>
       </c>
@@ -2164,7 +2161,7 @@
         <v>12463.141</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>2006</v>
       </c>
@@ -2175,7 +2172,7 @@
         <v>12933.736000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>2007</v>
       </c>
@@ -2186,7 +2183,7 @@
         <v>13428.616</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>2008</v>
       </c>
@@ -2197,7 +2194,7 @@
         <v>13622.655000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>2009</v>
       </c>
@@ -2208,7 +2205,7 @@
         <v>13359.558000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>2010</v>
       </c>
@@ -2219,7 +2216,7 @@
         <v>13868.406000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>2011</v>
       </c>
@@ -2230,7 +2227,7 @@
         <v>14230.718999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>2012</v>
       </c>
@@ -2241,7 +2238,7 @@
         <v>14504.989</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>2013</v>
       </c>
@@ -2252,7 +2249,7 @@
         <v>14789.621999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>2014</v>
       </c>
@@ -2263,7 +2260,7 @@
         <v>15112.653</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>2015</v>
       </c>
@@ -2274,7 +2271,7 @@
         <v>15433.18</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>2016</v>
       </c>
@@ -2285,7 +2282,7 @@
         <v>15750.084000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>2017</v>
       </c>
@@ -2296,7 +2293,7 @@
         <v>16156.353999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>2018</v>
       </c>
@@ -2307,7 +2304,7 @@
         <v>16558.998</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>2019</v>
       </c>
@@ -2318,7 +2315,7 @@
         <v>16847.46</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>2020</v>
       </c>
@@ -2329,7 +2326,7 @@
         <v>16175.776</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>2021</v>
       </c>
@@ -2340,7 +2337,7 @@
         <v>16997.134999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>2022</v>
       </c>
@@ -2348,7 +2345,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>2023</v>
       </c>
@@ -2356,7 +2353,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>2024</v>
       </c>
@@ -2373,13 +2370,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37D7840-6AC1-428C-9D70-8867D5AA9E0C}">
   <dimension ref="A1:D526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="A494" workbookViewId="0">
+      <selection sqref="A1:D526"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2393,7 +2390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1500</v>
       </c>
@@ -2404,7 +2401,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1501</v>
       </c>
@@ -2412,7 +2409,7 @@
         <v>-0.38090000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1502</v>
       </c>
@@ -2420,7 +2417,7 @@
         <v>-0.38640000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1503</v>
       </c>
@@ -2428,7 +2425,7 @@
         <v>-0.40139999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1504</v>
       </c>
@@ -2436,7 +2433,7 @@
         <v>-0.33989999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1505</v>
       </c>
@@ -2444,7 +2441,7 @@
         <v>-0.36919999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1506</v>
       </c>
@@ -2452,7 +2449,7 @@
         <v>-0.33460000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1507</v>
       </c>
@@ -2460,7 +2457,7 @@
         <v>-0.38969999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1508</v>
       </c>
@@ -2468,7 +2465,7 @@
         <v>-0.33489999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1509</v>
       </c>
@@ -2476,7 +2473,7 @@
         <v>-0.36180000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1510</v>
       </c>
@@ -2484,7 +2481,7 @@
         <v>-0.33310000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1511</v>
       </c>
@@ -2492,7 +2489,7 @@
         <v>-0.40579999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1512</v>
       </c>
@@ -2500,7 +2497,7 @@
         <v>-0.31390000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1513</v>
       </c>
@@ -2508,7 +2505,7 @@
         <v>-0.3548</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1514</v>
       </c>
@@ -2516,7 +2513,7 @@
         <v>-0.37190000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1515</v>
       </c>
@@ -2524,7 +2521,7 @@
         <v>-0.39500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1516</v>
       </c>
@@ -2532,7 +2529,7 @@
         <v>-0.46210000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1517</v>
       </c>
@@ -2540,7 +2537,7 @@
         <v>-0.37930000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1518</v>
       </c>
@@ -2548,7 +2545,7 @@
         <v>-0.4365</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1519</v>
       </c>
@@ -2556,7 +2553,7 @@
         <v>-0.41589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1520</v>
       </c>
@@ -2564,7 +2561,7 @@
         <v>-0.44600000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1521</v>
       </c>
@@ -2572,7 +2569,7 @@
         <v>-0.45079999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1522</v>
       </c>
@@ -2580,7 +2577,7 @@
         <v>-0.46579999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1523</v>
       </c>
@@ -2588,7 +2585,7 @@
         <v>-0.47539999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1524</v>
       </c>
@@ -2596,7 +2593,7 @@
         <v>-0.47499999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1525</v>
       </c>
@@ -2604,7 +2601,7 @@
         <v>-0.38600000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1526</v>
       </c>
@@ -2612,7 +2609,7 @@
         <v>-0.40489999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1527</v>
       </c>
@@ -2620,7 +2617,7 @@
         <v>-0.32840000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1528</v>
       </c>
@@ -2628,7 +2625,7 @@
         <v>-0.4461</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1529</v>
       </c>
@@ -2636,7 +2633,7 @@
         <v>-0.37990000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1530</v>
       </c>
@@ -2644,7 +2641,7 @@
         <v>-0.31190000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1531</v>
       </c>
@@ -2652,7 +2649,7 @@
         <v>-0.3569</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1532</v>
       </c>
@@ -2660,7 +2657,7 @@
         <v>-0.3569</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1533</v>
       </c>
@@ -2668,7 +2665,7 @@
         <v>-0.40679999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1534</v>
       </c>
@@ -2676,7 +2673,7 @@
         <v>-0.37169999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1535</v>
       </c>
@@ -2684,7 +2681,7 @@
         <v>-0.30769999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1536</v>
       </c>
@@ -2692,7 +2689,7 @@
         <v>-0.34720000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1537</v>
       </c>
@@ -2700,7 +2697,7 @@
         <v>-0.31890000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1538</v>
       </c>
@@ -2708,7 +2705,7 @@
         <v>-0.35189999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1539</v>
       </c>
@@ -2716,7 +2713,7 @@
         <v>-0.29170000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1540</v>
       </c>
@@ -2724,7 +2721,7 @@
         <v>-0.4098</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1541</v>
       </c>
@@ -2732,7 +2729,7 @@
         <v>-0.38779999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1542</v>
       </c>
@@ -2740,7 +2737,7 @@
         <v>-0.45650000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1543</v>
       </c>
@@ -2748,7 +2745,7 @@
         <v>-0.47720000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1544</v>
       </c>
@@ -2756,7 +2753,7 @@
         <v>-0.51370000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1545</v>
       </c>
@@ -2764,7 +2761,7 @@
         <v>-0.34010000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1546</v>
       </c>
@@ -2772,7 +2769,7 @@
         <v>-0.40050000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1547</v>
       </c>
@@ -2780,7 +2777,7 @@
         <v>-0.4103</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1548</v>
       </c>
@@ -2788,7 +2785,7 @@
         <v>-0.40289999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1549</v>
       </c>
@@ -2796,7 +2793,7 @@
         <v>-0.4073</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>1550</v>
       </c>
@@ -2804,7 +2801,7 @@
         <v>-0.32340000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>1551</v>
       </c>
@@ -2812,7 +2809,7 @@
         <v>-0.30309999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>1552</v>
       </c>
@@ -2820,7 +2817,7 @@
         <v>-0.30940000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>1553</v>
       </c>
@@ -2828,7 +2825,7 @@
         <v>-0.33379999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>1554</v>
       </c>
@@ -2836,7 +2833,7 @@
         <v>-0.37459999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>1555</v>
       </c>
@@ -2844,7 +2841,7 @@
         <v>-0.38790000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>1556</v>
       </c>
@@ -2852,7 +2849,7 @@
         <v>-0.35270000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>1557</v>
       </c>
@@ -2860,7 +2857,7 @@
         <v>-0.39579999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1558</v>
       </c>
@@ -2868,7 +2865,7 @@
         <v>-0.30599999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>1559</v>
       </c>
@@ -2876,7 +2873,7 @@
         <v>-0.40079999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>1560</v>
       </c>
@@ -2884,7 +2881,7 @@
         <v>-0.27989999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>1561</v>
       </c>
@@ -2892,7 +2889,7 @@
         <v>-0.3276</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>1562</v>
       </c>
@@ -2900,7 +2897,7 @@
         <v>-0.29680000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>1563</v>
       </c>
@@ -2908,7 +2905,7 @@
         <v>-0.25890000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>1564</v>
       </c>
@@ -2916,7 +2913,7 @@
         <v>-0.22520000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>1565</v>
       </c>
@@ -2924,7 +2921,7 @@
         <v>-0.22189999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>1566</v>
       </c>
@@ -2932,7 +2929,7 @@
         <v>-0.28370000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>1567</v>
       </c>
@@ -2940,7 +2937,7 @@
         <v>-0.34289999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>1568</v>
       </c>
@@ -2948,7 +2945,7 @@
         <v>-0.31809999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>1569</v>
       </c>
@@ -2956,7 +2953,7 @@
         <v>-0.28370000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>1570</v>
       </c>
@@ -2964,7 +2961,7 @@
         <v>-0.32090000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>1571</v>
       </c>
@@ -2972,7 +2969,7 @@
         <v>-0.40079999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>1572</v>
       </c>
@@ -2980,7 +2977,7 @@
         <v>-0.41189999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>1573</v>
       </c>
@@ -2988,7 +2985,7 @@
         <v>-0.40489999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>1574</v>
       </c>
@@ -2996,7 +2993,7 @@
         <v>-0.38800000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>1575</v>
       </c>
@@ -3004,7 +3001,7 @@
         <v>-0.28289999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>1576</v>
       </c>
@@ -3012,7 +3009,7 @@
         <v>-0.31290000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>1577</v>
       </c>
@@ -3020,7 +3017,7 @@
         <v>-0.37480000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>1578</v>
       </c>
@@ -3028,7 +3025,7 @@
         <v>-0.46439999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>1579</v>
       </c>
@@ -3036,7 +3033,7 @@
         <v>-0.50649999999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>1580</v>
       </c>
@@ -3044,7 +3041,7 @@
         <v>-0.47670000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>1581</v>
       </c>
@@ -3052,7 +3049,7 @@
         <v>-0.43980000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>1582</v>
       </c>
@@ -3060,7 +3057,7 @@
         <v>-0.38819999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>1583</v>
       </c>
@@ -3068,7 +3065,7 @@
         <v>-0.35759999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>1584</v>
       </c>
@@ -3076,7 +3073,7 @@
         <v>-0.43480000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>1585</v>
       </c>
@@ -3084,7 +3081,7 @@
         <v>-0.46360000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>1586</v>
       </c>
@@ -3092,7 +3089,7 @@
         <v>-0.45350000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>1587</v>
       </c>
@@ -3100,7 +3097,7 @@
         <v>-0.49890000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>1588</v>
       </c>
@@ -3108,7 +3105,7 @@
         <v>-0.41549999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>1589</v>
       </c>
@@ -3116,7 +3113,7 @@
         <v>-0.47089999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>1590</v>
       </c>
@@ -3124,7 +3121,7 @@
         <v>-0.43930000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>1591</v>
       </c>
@@ -3132,7 +3129,7 @@
         <v>-0.44600000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>1592</v>
       </c>
@@ -3140,7 +3137,7 @@
         <v>-0.41589999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>1593</v>
       </c>
@@ -3148,7 +3145,7 @@
         <v>-0.49790000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>1594</v>
       </c>
@@ -3156,7 +3153,7 @@
         <v>-0.39689999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>1595</v>
       </c>
@@ -3164,7 +3161,7 @@
         <v>-0.43719999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>1596</v>
       </c>
@@ -3172,7 +3169,7 @@
         <v>-0.47370000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>1597</v>
       </c>
@@ -3180,7 +3177,7 @@
         <v>-0.46179999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>1598</v>
       </c>
@@ -3188,7 +3185,7 @@
         <v>-0.42349999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>1599</v>
       </c>
@@ -3196,7 +3193,7 @@
         <v>-0.4657</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>1600</v>
       </c>
@@ -3207,7 +3204,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>1601</v>
       </c>
@@ -3215,7 +3212,7 @@
         <v>-0.71279999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>1602</v>
       </c>
@@ -3223,7 +3220,7 @@
         <v>-0.58630000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>1603</v>
       </c>
@@ -3231,7 +3228,7 @@
         <v>-0.50839999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>1604</v>
       </c>
@@ -3239,7 +3236,7 @@
         <v>-0.50219999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>1605</v>
       </c>
@@ -3247,7 +3244,7 @@
         <v>-0.56659999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>1606</v>
       </c>
@@ -3255,7 +3252,7 @@
         <v>-0.55769999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>1607</v>
       </c>
@@ -3263,7 +3260,7 @@
         <v>-0.50860000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>1608</v>
       </c>
@@ -3271,7 +3268,7 @@
         <v>-0.51600000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>1609</v>
       </c>
@@ -3279,7 +3276,7 @@
         <v>-0.50690000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>1610</v>
       </c>
@@ -3287,7 +3284,7 @@
         <v>-0.46089999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>1611</v>
       </c>
@@ -3295,7 +3292,7 @@
         <v>-0.3846</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>1612</v>
       </c>
@@ -3303,7 +3300,7 @@
         <v>-0.43180000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>1613</v>
       </c>
@@ -3311,7 +3308,7 @@
         <v>-0.39879999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>1614</v>
       </c>
@@ -3319,7 +3316,7 @@
         <v>-0.41789999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>1615</v>
       </c>
@@ -3327,7 +3324,7 @@
         <v>-0.46289999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>1616</v>
       </c>
@@ -3335,7 +3332,7 @@
         <v>-0.35089999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>1617</v>
       </c>
@@ -3343,7 +3340,7 @@
         <v>-0.37190000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>1618</v>
       </c>
@@ -3351,7 +3348,7 @@
         <v>-0.46589999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>1619</v>
       </c>
@@ -3359,7 +3356,7 @@
         <v>-0.4163</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>1620</v>
       </c>
@@ -3367,7 +3364,7 @@
         <v>-0.4723</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>1621</v>
       </c>
@@ -3375,7 +3372,7 @@
         <v>-0.48870000000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>1622</v>
       </c>
@@ -3383,7 +3380,7 @@
         <v>-0.4667</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>1623</v>
       </c>
@@ -3391,7 +3388,7 @@
         <v>-0.52390000000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>1624</v>
       </c>
@@ -3399,7 +3396,7 @@
         <v>-0.55769999999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>1625</v>
       </c>
@@ -3407,7 +3404,7 @@
         <v>-0.55230000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>1626</v>
       </c>
@@ -3415,7 +3412,7 @@
         <v>-0.50370000000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>1627</v>
       </c>
@@ -3423,7 +3420,7 @@
         <v>-0.50780000000000003</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>1628</v>
       </c>
@@ -3431,7 +3428,7 @@
         <v>-0.4491</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>1629</v>
       </c>
@@ -3439,7 +3436,7 @@
         <v>-0.38300000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>1630</v>
       </c>
@@ -3447,7 +3444,7 @@
         <v>-0.43940000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>1631</v>
       </c>
@@ -3455,7 +3452,7 @@
         <v>-0.47089999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>1632</v>
       </c>
@@ -3463,7 +3460,7 @@
         <v>-0.41820000000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>1633</v>
       </c>
@@ -3471,7 +3468,7 @@
         <v>-0.4541</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>1634</v>
       </c>
@@ -3479,7 +3476,7 @@
         <v>-0.32600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>1635</v>
       </c>
@@ -3487,7 +3484,7 @@
         <v>-0.39500000000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>1636</v>
       </c>
@@ -3495,7 +3492,7 @@
         <v>-0.3377</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>1637</v>
       </c>
@@ -3503,7 +3500,7 @@
         <v>-0.39579999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>1638</v>
       </c>
@@ -3511,7 +3508,7 @@
         <v>-0.41170000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>1639</v>
       </c>
@@ -3519,7 +3516,7 @@
         <v>-0.44929999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>1640</v>
       </c>
@@ -3527,7 +3524,7 @@
         <v>-0.38080000000000003</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>1641</v>
       </c>
@@ -3535,7 +3532,7 @@
         <v>-0.61380000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>1642</v>
       </c>
@@ -3543,7 +3540,7 @@
         <v>-0.56830000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>1643</v>
       </c>
@@ -3551,7 +3548,7 @@
         <v>-0.58960000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>1644</v>
       </c>
@@ -3559,7 +3556,7 @@
         <v>-0.55400000000000005</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>1645</v>
       </c>
@@ -3567,7 +3564,7 @@
         <v>-0.52890000000000004</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>1646</v>
       </c>
@@ -3575,7 +3572,7 @@
         <v>-0.5464</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>1647</v>
       </c>
@@ -3583,7 +3580,7 @@
         <v>-0.53090000000000004</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>1648</v>
       </c>
@@ -3591,7 +3588,7 @@
         <v>-0.48080000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>1649</v>
       </c>
@@ -3599,7 +3596,7 @@
         <v>-0.43859999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>1650</v>
       </c>
@@ -3607,7 +3604,7 @@
         <v>-0.45090000000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>1651</v>
       </c>
@@ -3615,7 +3612,7 @@
         <v>-0.3856</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>1652</v>
       </c>
@@ -3623,7 +3620,7 @@
         <v>-0.49880000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>1653</v>
       </c>
@@ -3631,7 +3628,7 @@
         <v>-0.46579999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>1654</v>
       </c>
@@ -3639,7 +3636,7 @@
         <v>-0.4446</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>1655</v>
       </c>
@@ -3647,7 +3644,7 @@
         <v>-0.37790000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>1656</v>
       </c>
@@ -3655,7 +3652,7 @@
         <v>-0.35189999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>1657</v>
       </c>
@@ -3663,7 +3660,7 @@
         <v>-0.31490000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>1658</v>
       </c>
@@ -3671,7 +3668,7 @@
         <v>-0.35659999999999997</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>1659</v>
       </c>
@@ -3679,7 +3676,7 @@
         <v>-0.36380000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>1660</v>
       </c>
@@ -3687,7 +3684,7 @@
         <v>-0.32590000000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>1661</v>
       </c>
@@ -3695,7 +3692,7 @@
         <v>-0.3276</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>1662</v>
       </c>
@@ -3703,7 +3700,7 @@
         <v>-0.39190000000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>1663</v>
       </c>
@@ -3711,7 +3708,7 @@
         <v>-0.48680000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>1664</v>
       </c>
@@ -3719,7 +3716,7 @@
         <v>-0.39779999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>1665</v>
       </c>
@@ -3727,7 +3724,7 @@
         <v>-0.45100000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>1666</v>
       </c>
@@ -3735,7 +3732,7 @@
         <v>-0.48120000000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>1667</v>
       </c>
@@ -3743,7 +3740,7 @@
         <v>-0.48880000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>1668</v>
       </c>
@@ -3751,7 +3748,7 @@
         <v>-0.50160000000000005</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>1669</v>
       </c>
@@ -3759,7 +3756,7 @@
         <v>-0.50309999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>1670</v>
       </c>
@@ -3767,7 +3764,7 @@
         <v>-0.54879999999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>1671</v>
       </c>
@@ -3775,7 +3772,7 @@
         <v>-0.45979999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>1672</v>
       </c>
@@ -3783,7 +3780,7 @@
         <v>-0.4929</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>1673</v>
       </c>
@@ -3791,7 +3788,7 @@
         <v>-0.52910000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>1674</v>
       </c>
@@ -3799,7 +3796,7 @@
         <v>-0.51800000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>1675</v>
       </c>
@@ -3807,7 +3804,7 @@
         <v>-0.52210000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>1676</v>
       </c>
@@ -3815,7 +3812,7 @@
         <v>-0.51529999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>1677</v>
       </c>
@@ -3823,7 +3820,7 @@
         <v>-0.5514</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>1678</v>
       </c>
@@ -3831,7 +3828,7 @@
         <v>-0.53890000000000005</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>1679</v>
       </c>
@@ -3839,7 +3836,7 @@
         <v>-0.54490000000000005</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>1680</v>
       </c>
@@ -3847,7 +3844,7 @@
         <v>-0.56399999999999995</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>1681</v>
       </c>
@@ -3855,7 +3852,7 @@
         <v>-0.51339999999999997</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>1682</v>
       </c>
@@ -3863,7 +3860,7 @@
         <v>-0.45979999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>1683</v>
       </c>
@@ -3871,7 +3868,7 @@
         <v>-0.39360000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>1684</v>
       </c>
@@ -3879,7 +3876,7 @@
         <v>-0.38269999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>1685</v>
       </c>
@@ -3887,7 +3884,7 @@
         <v>-0.46500000000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>1686</v>
       </c>
@@ -3895,7 +3892,7 @@
         <v>-0.35360000000000003</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>1687</v>
       </c>
@@ -3903,7 +3900,7 @@
         <v>-0.38390000000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>1688</v>
       </c>
@@ -3911,7 +3908,7 @@
         <v>-0.38690000000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>1689</v>
       </c>
@@ -3919,7 +3916,7 @@
         <v>-0.29249999999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>1690</v>
       </c>
@@ -3927,7 +3924,7 @@
         <v>-0.34770000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>1691</v>
       </c>
@@ -3935,7 +3932,7 @@
         <v>-0.34870000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>1692</v>
       </c>
@@ -3943,7 +3940,7 @@
         <v>-0.36299999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>1693</v>
       </c>
@@ -3951,7 +3948,7 @@
         <v>-0.33579999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>1694</v>
       </c>
@@ -3959,7 +3956,7 @@
         <v>-0.35730000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>1695</v>
       </c>
@@ -3967,7 +3964,7 @@
         <v>-0.4778</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>1696</v>
       </c>
@@ -3975,7 +3972,7 @@
         <v>-0.47470000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>1697</v>
       </c>
@@ -3983,7 +3980,7 @@
         <v>-0.50139999999999996</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>1698</v>
       </c>
@@ -3991,7 +3988,7 @@
         <v>-0.56510000000000005</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>1699</v>
       </c>
@@ -3999,7 +3996,7 @@
         <v>-0.66879999999999995</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>1700</v>
       </c>
@@ -4010,7 +4007,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>1701</v>
       </c>
@@ -4018,7 +4015,7 @@
         <v>-0.59560000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>1702</v>
       </c>
@@ -4026,7 +4023,7 @@
         <v>-0.56499999999999995</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>1703</v>
       </c>
@@ -4034,7 +4031,7 @@
         <v>-0.47570000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>1704</v>
       </c>
@@ -4042,7 +4039,7 @@
         <v>-0.58109999999999995</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>1705</v>
       </c>
@@ -4050,7 +4047,7 @@
         <v>-0.59689999999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>1706</v>
       </c>
@@ -4058,7 +4055,7 @@
         <v>-0.55479999999999996</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>1707</v>
       </c>
@@ -4066,7 +4063,7 @@
         <v>-0.48520000000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>1708</v>
       </c>
@@ -4074,7 +4071,7 @@
         <v>-0.51119999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>1709</v>
       </c>
@@ -4082,7 +4079,7 @@
         <v>-0.4929</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>1710</v>
       </c>
@@ -4090,7 +4087,7 @@
         <v>-0.42980000000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>1711</v>
       </c>
@@ -4098,7 +4095,7 @@
         <v>-0.45729999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>1712</v>
       </c>
@@ -4106,7 +4103,7 @@
         <v>-0.36709999999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>1713</v>
       </c>
@@ -4114,7 +4111,7 @@
         <v>-0.38679999999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>1714</v>
       </c>
@@ -4122,7 +4119,7 @@
         <v>-0.49380000000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>1715</v>
       </c>
@@ -4130,7 +4127,7 @@
         <v>-0.44280000000000003</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>1716</v>
       </c>
@@ -4138,7 +4135,7 @@
         <v>-0.43290000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>1717</v>
       </c>
@@ -4146,7 +4143,7 @@
         <v>-0.46800000000000003</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>1718</v>
       </c>
@@ -4154,7 +4151,7 @@
         <v>-0.40849999999999997</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>1719</v>
       </c>
@@ -4162,7 +4159,7 @@
         <v>-0.44769999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>1720</v>
       </c>
@@ -4170,7 +4167,7 @@
         <v>-0.34870000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>1721</v>
       </c>
@@ -4178,7 +4175,7 @@
         <v>-0.4113</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>1722</v>
       </c>
@@ -4186,7 +4183,7 @@
         <v>-0.29370000000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>1723</v>
       </c>
@@ -4194,7 +4191,7 @@
         <v>-0.39979999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>1724</v>
       </c>
@@ -4202,7 +4199,7 @@
         <v>-0.373</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>1725</v>
       </c>
@@ -4210,7 +4207,7 @@
         <v>-0.38740000000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>1726</v>
       </c>
@@ -4218,7 +4215,7 @@
         <v>-0.36870000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>1727</v>
       </c>
@@ -4226,7 +4223,7 @@
         <v>-0.36909999999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>1728</v>
       </c>
@@ -4234,7 +4231,7 @@
         <v>-0.3574</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>1729</v>
       </c>
@@ -4242,7 +4239,7 @@
         <v>-0.33289999999999997</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>1730</v>
       </c>
@@ -4250,7 +4247,7 @@
         <v>-0.36809999999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>1731</v>
       </c>
@@ -4258,7 +4255,7 @@
         <v>-0.43590000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>1732</v>
       </c>
@@ -4266,7 +4263,7 @@
         <v>-0.38069999999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>1733</v>
       </c>
@@ -4274,7 +4271,7 @@
         <v>-0.40710000000000002</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>1734</v>
       </c>
@@ -4282,7 +4279,7 @@
         <v>-0.33090000000000003</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>1735</v>
       </c>
@@ -4290,7 +4287,7 @@
         <v>-0.41289999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>1736</v>
       </c>
@@ -4298,7 +4295,7 @@
         <v>-0.41649999999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>1737</v>
       </c>
@@ -4306,7 +4303,7 @@
         <v>-0.42080000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>1738</v>
       </c>
@@ -4314,7 +4311,7 @@
         <v>-0.43359999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>1739</v>
       </c>
@@ -4322,7 +4319,7 @@
         <v>-0.35449999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>1740</v>
       </c>
@@ -4330,7 +4327,7 @@
         <v>-0.44169999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>1741</v>
       </c>
@@ -4338,7 +4335,7 @@
         <v>-0.39179999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>1742</v>
       </c>
@@ -4346,7 +4343,7 @@
         <v>-0.52890000000000004</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>1743</v>
       </c>
@@ -4354,7 +4351,7 @@
         <v>-0.4002</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>1744</v>
       </c>
@@ -4362,7 +4359,7 @@
         <v>-0.42670000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>1745</v>
       </c>
@@ -4370,7 +4367,7 @@
         <v>-0.4929</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>1746</v>
       </c>
@@ -4378,7 +4375,7 @@
         <v>-0.50849999999999995</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>1747</v>
       </c>
@@ -4386,7 +4383,7 @@
         <v>-0.36009999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>1748</v>
       </c>
@@ -4394,7 +4391,7 @@
         <v>-0.3725</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>1749</v>
       </c>
@@ -4402,7 +4399,7 @@
         <v>-0.40570000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>1750</v>
       </c>
@@ -4410,7 +4407,7 @@
         <v>-0.39879999999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>1751</v>
       </c>
@@ -4418,7 +4415,7 @@
         <v>-0.41849999999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>1752</v>
       </c>
@@ -4426,7 +4423,7 @@
         <v>-0.40250000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>1753</v>
       </c>
@@ -4434,7 +4431,7 @@
         <v>-0.40610000000000002</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>1754</v>
       </c>
@@ -4442,7 +4439,7 @@
         <v>-0.4471</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>1755</v>
       </c>
@@ -4450,7 +4447,7 @@
         <v>-0.43559999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>1756</v>
       </c>
@@ -4458,7 +4455,7 @@
         <v>-0.35170000000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>1757</v>
       </c>
@@ -4466,7 +4463,7 @@
         <v>-0.36209999999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>1758</v>
       </c>
@@ -4474,7 +4471,7 @@
         <v>-0.44600000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>1759</v>
       </c>
@@ -4482,7 +4479,7 @@
         <v>-0.3569</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>1760</v>
       </c>
@@ -4490,7 +4487,7 @@
         <v>-0.3695</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>1761</v>
       </c>
@@ -4498,7 +4495,7 @@
         <v>-0.33150000000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>1762</v>
       </c>
@@ -4506,7 +4503,7 @@
         <v>-0.35389999999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>1763</v>
       </c>
@@ -4514,7 +4511,7 @@
         <v>-0.32419999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>1764</v>
       </c>
@@ -4522,7 +4519,7 @@
         <v>-0.38519999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>1765</v>
       </c>
@@ -4530,7 +4527,7 @@
         <v>-0.32890000000000003</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>1766</v>
       </c>
@@ -4538,7 +4535,7 @@
         <v>-0.31190000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>1767</v>
       </c>
@@ -4546,7 +4543,7 @@
         <v>-0.34389999999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>1768</v>
       </c>
@@ -4554,7 +4551,7 @@
         <v>-0.46970000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>1769</v>
       </c>
@@ -4562,7 +4559,7 @@
         <v>-0.36699999999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>1770</v>
       </c>
@@ -4570,7 +4567,7 @@
         <v>-0.36220000000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>1771</v>
       </c>
@@ -4578,7 +4575,7 @@
         <v>-0.37809999999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>1772</v>
       </c>
@@ -4586,7 +4583,7 @@
         <v>-0.40079999999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>1773</v>
       </c>
@@ -4594,7 +4591,7 @@
         <v>-0.3024</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>1774</v>
       </c>
@@ -4602,7 +4599,7 @@
         <v>-0.2636</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>1775</v>
       </c>
@@ -4610,7 +4607,7 @@
         <v>-0.36969999999999997</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>1776</v>
       </c>
@@ -4618,7 +4615,7 @@
         <v>-0.29970000000000002</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>1777</v>
       </c>
@@ -4626,7 +4623,7 @@
         <v>-0.29920000000000002</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>1778</v>
       </c>
@@ -4634,7 +4631,7 @@
         <v>-0.37780000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>1779</v>
       </c>
@@ -4642,7 +4639,7 @@
         <v>-0.38579999999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>1780</v>
       </c>
@@ -4650,7 +4647,7 @@
         <v>-0.3841</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>1781</v>
       </c>
@@ -4658,7 +4655,7 @@
         <v>-0.38340000000000002</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>1782</v>
       </c>
@@ -4666,7 +4663,7 @@
         <v>-0.41749999999999998</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>1783</v>
       </c>
@@ -4674,7 +4671,7 @@
         <v>-0.46400000000000002</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>1784</v>
       </c>
@@ -4682,7 +4679,7 @@
         <v>-0.3977</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>1785</v>
       </c>
@@ -4690,7 +4687,7 @@
         <v>-0.37659999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>1786</v>
       </c>
@@ -4698,7 +4695,7 @@
         <v>-0.34599999999999997</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>1787</v>
       </c>
@@ -4706,7 +4703,7 @@
         <v>-0.45300000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>1788</v>
       </c>
@@ -4714,7 +4711,7 @@
         <v>-0.39660000000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>1789</v>
       </c>
@@ -4722,7 +4719,7 @@
         <v>-0.38840000000000002</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>1790</v>
       </c>
@@ -4730,7 +4727,7 @@
         <v>-0.46829999999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>1791</v>
       </c>
@@ -4738,7 +4735,7 @@
         <v>-0.32569999999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>1792</v>
       </c>
@@ -4746,7 +4743,7 @@
         <v>-0.29809999999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>1793</v>
       </c>
@@ -4754,7 +4751,7 @@
         <v>-0.32469999999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>1794</v>
       </c>
@@ -4762,7 +4759,7 @@
         <v>-0.28889999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>1795</v>
       </c>
@@ -4770,7 +4767,7 @@
         <v>-0.34689999999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>1796</v>
       </c>
@@ -4778,7 +4775,7 @@
         <v>-0.29220000000000002</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>1797</v>
       </c>
@@ -4786,7 +4783,7 @@
         <v>-0.37090000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>1798</v>
       </c>
@@ -4794,7 +4791,7 @@
         <v>-0.2402</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>1799</v>
       </c>
@@ -4802,7 +4799,7 @@
         <v>-0.32640000000000002</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>1800</v>
       </c>
@@ -4810,7 +4807,7 @@
         <v>-0.34870000000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>1801</v>
       </c>
@@ -4818,7 +4815,7 @@
         <v>-0.29089999999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>1802</v>
       </c>
@@ -4826,7 +4823,7 @@
         <v>-0.308</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>1803</v>
       </c>
@@ -4834,7 +4831,7 @@
         <v>-0.2369</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>1804</v>
       </c>
@@ -4842,7 +4839,7 @@
         <v>-0.18190000000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>1805</v>
       </c>
@@ -4850,7 +4847,7 @@
         <v>-0.31119999999999998</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>1806</v>
       </c>
@@ -4858,7 +4855,7 @@
         <v>-0.3508</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>1807</v>
       </c>
@@ -4866,7 +4863,7 @@
         <v>-0.2959</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>1808</v>
       </c>
@@ -4874,7 +4871,7 @@
         <v>-0.31680000000000003</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>1809</v>
       </c>
@@ -4882,7 +4879,7 @@
         <v>-0.50060000000000004</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>1810</v>
       </c>
@@ -4893,7 +4890,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>1811</v>
       </c>
@@ -4901,7 +4898,7 @@
         <v>-0.46279999999999999</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>1812</v>
       </c>
@@ -4909,7 +4906,7 @@
         <v>-0.51119999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>1813</v>
       </c>
@@ -4917,7 +4914,7 @@
         <v>-0.4819</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>1814</v>
       </c>
@@ -4925,7 +4922,7 @@
         <v>-0.51559999999999995</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>1815</v>
       </c>
@@ -4933,7 +4930,7 @@
         <v>-0.57089999999999996</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>1816</v>
       </c>
@@ -4941,7 +4938,7 @@
         <v>-0.55789999999999995</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>1817</v>
       </c>
@@ -4949,7 +4946,7 @@
         <v>-0.52990000000000004</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>1818</v>
       </c>
@@ -4957,7 +4954,7 @@
         <v>-0.56679999999999997</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>1819</v>
       </c>
@@ -4965,7 +4962,7 @@
         <v>-0.53979999999999995</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>1820</v>
       </c>
@@ -4973,7 +4970,7 @@
         <v>-0.51190000000000002</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>1821</v>
       </c>
@@ -4981,7 +4978,7 @@
         <v>-0.5595</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>1822</v>
       </c>
@@ -4989,7 +4986,7 @@
         <v>-0.47089999999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>1823</v>
       </c>
@@ -4997,7 +4994,7 @@
         <v>-0.38490000000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>1824</v>
       </c>
@@ -5005,7 +5002,7 @@
         <v>-0.42499999999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>1825</v>
       </c>
@@ -5013,7 +5010,7 @@
         <v>-0.38890000000000002</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>1826</v>
       </c>
@@ -5021,7 +5018,7 @@
         <v>-0.39179999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>1827</v>
       </c>
@@ -5029,7 +5026,7 @@
         <v>-0.44469999999999998</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>1828</v>
       </c>
@@ -5037,7 +5034,7 @@
         <v>-0.34420000000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>1829</v>
       </c>
@@ -5045,7 +5042,7 @@
         <v>-0.34610000000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>1830</v>
       </c>
@@ -5053,7 +5050,7 @@
         <v>-0.37469999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>1831</v>
       </c>
@@ -5061,7 +5058,7 @@
         <v>-0.37369999999999998</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>1832</v>
       </c>
@@ -5069,7 +5066,7 @@
         <v>-0.47989999999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>1833</v>
       </c>
@@ -5077,7 +5074,7 @@
         <v>-0.4597</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>1834</v>
       </c>
@@ -5085,7 +5082,7 @@
         <v>-0.41160000000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>1835</v>
       </c>
@@ -5093,7 +5090,7 @@
         <v>-0.52580000000000005</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>1836</v>
       </c>
@@ -5101,7 +5098,7 @@
         <v>-0.60550000000000004</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>1837</v>
       </c>
@@ -5109,7 +5106,7 @@
         <v>-0.58130000000000004</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>1838</v>
       </c>
@@ -5117,7 +5114,7 @@
         <v>-0.49049999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>1839</v>
       </c>
@@ -5125,7 +5122,7 @@
         <v>-0.47810000000000002</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>1840</v>
       </c>
@@ -5133,7 +5130,7 @@
         <v>-0.49590000000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>1841</v>
       </c>
@@ -5141,7 +5138,7 @@
         <v>-0.51939999999999997</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>1842</v>
       </c>
@@ -5149,7 +5146,7 @@
         <v>-0.53700000000000003</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>1843</v>
       </c>
@@ -5157,7 +5154,7 @@
         <v>-0.55279999999999996</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>1844</v>
       </c>
@@ -5165,7 +5162,7 @@
         <v>-0.44879999999999998</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>1845</v>
       </c>
@@ -5173,7 +5170,7 @@
         <v>-0.5141</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>1846</v>
       </c>
@@ -5181,7 +5178,7 @@
         <v>-0.38619999999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>1847</v>
       </c>
@@ -5189,7 +5186,7 @@
         <v>-0.46389999999999998</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>1848</v>
       </c>
@@ -5197,7 +5194,7 @@
         <v>-0.43880000000000002</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>1849</v>
       </c>
@@ -5205,7 +5202,7 @@
         <v>-0.53680000000000005</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>1850</v>
       </c>
@@ -5219,7 +5216,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>1851</v>
       </c>
@@ -5230,7 +5227,7 @@
         <v>-0.40360000000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>1852</v>
       </c>
@@ -5241,7 +5238,7 @@
         <v>-0.30630000000000002</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>1853</v>
       </c>
@@ -5252,7 +5249,7 @@
         <v>-0.3508</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>1854</v>
       </c>
@@ -5263,7 +5260,7 @@
         <v>-0.40110000000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>1855</v>
       </c>
@@ -5274,7 +5271,7 @@
         <v>-0.3896</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>1856</v>
       </c>
@@ -5285,7 +5282,7 @@
         <v>-0.47660000000000002</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>1857</v>
       </c>
@@ -5296,7 +5293,7 @@
         <v>-0.46200000000000002</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>1858</v>
       </c>
@@ -5307,7 +5304,7 @@
         <v>-0.41489999999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>1859</v>
       </c>
@@ -5318,7 +5315,7 @@
         <v>-0.48180000000000001</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>1860</v>
       </c>
@@ -5329,7 +5326,7 @@
         <v>-0.41420000000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>1861</v>
       </c>
@@ -5340,7 +5337,7 @@
         <v>-0.38069999999999998</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>1862</v>
       </c>
@@ -5351,7 +5348,7 @@
         <v>-0.47210000000000002</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>1863</v>
       </c>
@@ -5362,7 +5359,7 @@
         <v>-0.4219</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>1864</v>
       </c>
@@ -5373,7 +5370,7 @@
         <v>-0.45889999999999997</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>1865</v>
       </c>
@@ -5384,7 +5381,7 @@
         <v>-0.4466</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>1866</v>
       </c>
@@ -5395,7 +5392,7 @@
         <v>-0.4526</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>1867</v>
       </c>
@@ -5406,7 +5403,7 @@
         <v>-0.4279</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>1868</v>
       </c>
@@ -5417,7 +5414,7 @@
         <v>-0.34810000000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>1869</v>
       </c>
@@ -5428,7 +5425,7 @@
         <v>-0.41839999999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>1870</v>
       </c>
@@ -5442,7 +5439,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>1871</v>
       </c>
@@ -5453,7 +5450,7 @@
         <v>-0.40960000000000002</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>1872</v>
       </c>
@@ -5464,7 +5461,7 @@
         <v>-0.35570000000000002</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>1873</v>
       </c>
@@ -5475,7 +5472,7 @@
         <v>-0.36070000000000002</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>1874</v>
       </c>
@@ -5486,7 +5483,7 @@
         <v>-0.39240000000000003</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>1875</v>
       </c>
@@ -5497,7 +5494,7 @@
         <v>-0.34100000000000003</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>1876</v>
       </c>
@@ -5508,7 +5505,7 @@
         <v>-0.35970000000000002</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>1877</v>
       </c>
@@ -5519,7 +5516,7 @@
         <v>-0.28639999999999999</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>1878</v>
       </c>
@@ -5530,7 +5527,7 @@
         <v>-0.23280000000000001</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>1879</v>
       </c>
@@ -5541,7 +5538,7 @@
         <v>-0.35649999999999998</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>1880</v>
       </c>
@@ -5552,7 +5549,7 @@
         <v>-0.41189999999999999</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>1881</v>
       </c>
@@ -5563,7 +5560,7 @@
         <v>-0.36930000000000002</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>1882</v>
       </c>
@@ -5574,7 +5571,7 @@
         <v>-0.34279999999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>1883</v>
       </c>
@@ -5585,7 +5582,7 @@
         <v>-0.3659</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>1884</v>
       </c>
@@ -5596,7 +5593,7 @@
         <v>-0.48159999999999997</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>1885</v>
       </c>
@@ -5607,7 +5604,7 @@
         <v>-0.44519999999999998</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>1886</v>
       </c>
@@ -5618,7 +5615,7 @@
         <v>-0.37109999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>1887</v>
       </c>
@@ -5629,7 +5626,7 @@
         <v>-0.43030000000000002</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>1888</v>
       </c>
@@ -5640,7 +5637,7 @@
         <v>-0.3246</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>1889</v>
       </c>
@@ -5651,7 +5648,7 @@
         <v>-0.28129999999999999</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>1890</v>
       </c>
@@ -5662,7 +5659,7 @@
         <v>-0.37569999999999998</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>1891</v>
       </c>
@@ -5673,7 +5670,7 @@
         <v>-0.33789999999999998</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>1892</v>
       </c>
@@ -5684,7 +5681,7 @@
         <v>-0.44280000000000003</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>1893</v>
       </c>
@@ -5695,7 +5692,7 @@
         <v>-0.4118</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>1894</v>
       </c>
@@ -5706,7 +5703,7 @@
         <v>-0.35170000000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>1895</v>
       </c>
@@ -5717,7 +5714,7 @@
         <v>-0.34689999999999999</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>1896</v>
       </c>
@@ -5728,7 +5725,7 @@
         <v>-0.27200000000000002</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>1897</v>
       </c>
@@ -5739,7 +5736,7 @@
         <v>-0.24210000000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>1898</v>
       </c>
@@ -5750,7 +5747,7 @@
         <v>-0.28370000000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>1899</v>
       </c>
@@ -5761,7 +5758,7 @@
         <v>-0.35949999999999999</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>1900</v>
       </c>
@@ -5775,7 +5772,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>1901</v>
       </c>
@@ -5786,7 +5783,7 @@
         <v>-0.23380000000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>1902</v>
       </c>
@@ -5797,7 +5794,7 @@
         <v>-0.34860000000000002</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>1903</v>
       </c>
@@ -5808,7 +5805,7 @@
         <v>-0.38429999999999997</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>1904</v>
       </c>
@@ -5819,7 +5816,7 @@
         <v>-0.35249999999999998</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>1905</v>
       </c>
@@ -5830,7 +5827,7 @@
         <v>-0.35870000000000002</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>1906</v>
       </c>
@@ -5841,7 +5838,7 @@
         <v>-0.33179999999999998</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>1907</v>
       </c>
@@ -5852,7 +5849,7 @@
         <v>-0.4249</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>1908</v>
       </c>
@@ -5863,7 +5860,7 @@
         <v>-0.34689999999999999</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>1909</v>
       </c>
@@ -5874,7 +5871,7 @@
         <v>-0.43909999999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>1910</v>
       </c>
@@ -5885,7 +5882,7 @@
         <v>-0.44979999999999998</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>1911</v>
       </c>
@@ -5896,7 +5893,7 @@
         <v>-0.39100000000000001</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>1912</v>
       </c>
@@ -5907,7 +5904,7 @@
         <v>-0.4209</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>1913</v>
       </c>
@@ -5918,7 +5915,7 @@
         <v>-0.37659999999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>1914</v>
       </c>
@@ -5929,7 +5926,7 @@
         <v>-0.31850000000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>1915</v>
       </c>
@@ -5940,7 +5937,7 @@
         <v>-0.28270000000000001</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>1916</v>
       </c>
@@ -5951,7 +5948,7 @@
         <v>-0.39629999999999999</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>1917</v>
       </c>
@@ -5962,7 +5959,7 @@
         <v>-0.40289999999999998</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>1918</v>
       </c>
@@ -5973,7 +5970,7 @@
         <v>-0.34079999999999999</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>1919</v>
       </c>
@@ -5984,7 +5981,7 @@
         <v>-0.30520000000000003</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>1920</v>
       </c>
@@ -5998,7 +5995,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>1921</v>
       </c>
@@ -6009,7 +6006,7 @@
         <v>-0.26800000000000002</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>1922</v>
       </c>
@@ -6020,7 +6017,7 @@
         <v>-0.25490000000000002</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>1923</v>
       </c>
@@ -6031,7 +6028,7 @@
         <v>-0.2545</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>1924</v>
       </c>
@@ -6042,7 +6039,7 @@
         <v>-0.2268</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>1925</v>
       </c>
@@ -6053,7 +6050,7 @@
         <v>-0.19350000000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>1926</v>
       </c>
@@ -6064,7 +6061,7 @@
         <v>-0.18679999999999999</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>1927</v>
       </c>
@@ -6075,7 +6072,7 @@
         <v>-0.22789999999999999</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>1928</v>
       </c>
@@ -6086,7 +6083,7 @@
         <v>-0.2407</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>1929</v>
       </c>
@@ -6097,7 +6094,7 @@
         <v>-0.24210000000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>1930</v>
       </c>
@@ -6108,7 +6105,7 @@
         <v>-0.10680000000000001</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>1931</v>
       </c>
@@ -6119,7 +6116,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>1932</v>
       </c>
@@ -6130,7 +6127,7 @@
         <v>-0.1517</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>1933</v>
       </c>
@@ -6141,7 +6138,7 @@
         <v>-0.18279999999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>1934</v>
       </c>
@@ -6152,7 +6149,7 @@
         <v>-8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>1935</v>
       </c>
@@ -6163,7 +6160,7 @@
         <v>-0.1159</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>1936</v>
       </c>
@@ -6174,7 +6171,7 @@
         <v>-7.22E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>1937</v>
       </c>
@@ -6185,7 +6182,7 @@
         <v>-3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>1938</v>
       </c>
@@ -6196,7 +6193,7 @@
         <v>-3.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>1939</v>
       </c>
@@ -6207,7 +6204,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>1940</v>
       </c>
@@ -6221,7 +6218,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>1941</v>
       </c>
@@ -6232,7 +6229,7 @@
         <v>-4.5400000000000003E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>1942</v>
       </c>
@@ -6243,7 +6240,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>1943</v>
       </c>
@@ -6254,7 +6251,7 @@
         <v>-1.43E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>1944</v>
       </c>
@@ -6265,7 +6262,7 @@
         <v>-2.93E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>1945</v>
       </c>
@@ -6276,7 +6273,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>1946</v>
       </c>
@@ -6287,7 +6284,7 @@
         <v>-5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>1947</v>
       </c>
@@ -6298,7 +6295,7 @@
         <v>-7.7200000000000005E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>1948</v>
       </c>
@@ -6309,7 +6306,7 @@
         <v>-6.2899999999999998E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>1949</v>
       </c>
@@ -6320,7 +6317,7 @@
         <v>-0.1246</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>1950</v>
       </c>
@@ -6334,7 +6331,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>1951</v>
       </c>
@@ -6345,7 +6342,7 @@
         <v>-9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>1952</v>
       </c>
@@ -6356,7 +6353,7 @@
         <v>-1.95E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>1953</v>
       </c>
@@ -6367,7 +6364,7 @@
         <v>8.5000000000000006E-3</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>1954</v>
       </c>
@@ -6378,7 +6375,7 @@
         <v>-2.0400000000000001E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>1955</v>
       </c>
@@ -6389,7 +6386,7 @@
         <v>-3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>1956</v>
       </c>
@@ -6400,7 +6397,7 @@
         <v>-0.1278</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>1957</v>
       </c>
@@ -6411,7 +6408,7 @@
         <v>1.12E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>1958</v>
       </c>
@@ -6422,7 +6419,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>1959</v>
       </c>
@@ -6433,7 +6430,7 @@
         <v>-1.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>1960</v>
       </c>
@@ -6447,7 +6444,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>1961</v>
       </c>
@@ -6458,7 +6455,7 @@
         <v>-2.7199999999999998E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>1962</v>
       </c>
@@ -6469,7 +6466,7 @@
         <v>-5.28E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>1963</v>
       </c>
@@ -6480,7 +6477,7 @@
         <v>-9.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>1964</v>
       </c>
@@ -6491,7 +6488,7 @@
         <v>-0.13020000000000001</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>1965</v>
       </c>
@@ -6502,7 +6499,7 @@
         <v>-0.1208</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>1966</v>
       </c>
@@ -6513,7 +6510,7 @@
         <v>-4.7899999999999998E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>1967</v>
       </c>
@@ -6524,7 +6521,7 @@
         <v>-5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>1968</v>
       </c>
@@ -6535,7 +6532,7 @@
         <v>-0.1118</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>1969</v>
       </c>
@@ -6546,7 +6543,7 @@
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>1970</v>
       </c>
@@ -6560,7 +6557,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>1971</v>
       </c>
@@ -6571,7 +6568,7 @@
         <v>-0.12280000000000001</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>1972</v>
       </c>
@@ -6582,7 +6579,7 @@
         <v>-7.3899999999999993E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>1973</v>
       </c>
@@ -6593,7 +6590,7 @@
         <v>-8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>1974</v>
       </c>
@@ -6604,7 +6601,7 @@
         <v>-9.7600000000000006E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>1975</v>
       </c>
@@ -6615,7 +6612,7 @@
         <v>-0.1701</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>1976</v>
       </c>
@@ -6626,7 +6623,7 @@
         <v>-6.0400000000000002E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>1977</v>
       </c>
@@ -6637,7 +6634,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>1978</v>
       </c>
@@ -6648,7 +6645,7 @@
         <v>-4.19E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>1979</v>
       </c>
@@ -6659,7 +6656,7 @@
         <v>0.10059999999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>1980</v>
       </c>
@@ -6673,7 +6670,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>1981</v>
       </c>
@@ -6684,7 +6681,7 @@
         <v>8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>1982</v>
       </c>
@@ -6695,7 +6692,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>1983</v>
       </c>
@@ -6706,7 +6703,7 @@
         <v>6.0199999999999997E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>1984</v>
       </c>
@@ -6717,7 +6714,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>1985</v>
       </c>
@@ -6728,7 +6725,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>1986</v>
       </c>
@@ -6739,7 +6736,7 @@
         <v>6.9699999999999998E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>1987</v>
       </c>
@@ -6750,7 +6747,7 @@
         <v>7.3099999999999998E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>1988</v>
       </c>
@@ -6761,7 +6758,7 @@
         <v>0.18920000000000001</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>1989</v>
       </c>
@@ -6772,7 +6769,7 @@
         <v>0.1978</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>1990</v>
       </c>
@@ -6783,7 +6780,7 @@
         <v>0.2359</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>1991</v>
       </c>
@@ -6794,7 +6791,7 @@
         <v>0.28039999999999998</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>1992</v>
       </c>
@@ -6805,7 +6802,7 @@
         <v>0.1739</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>1993</v>
       </c>
@@ -6816,7 +6813,7 @@
         <v>0.15310000000000001</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>1994</v>
       </c>
@@ -6830,7 +6827,7 @@
         <v>9791.4230000000007</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>1995</v>
       </c>
@@ -6844,7 +6841,7 @@
         <v>9949.6679999999997</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>1996</v>
       </c>
@@ -6858,7 +6855,7 @@
         <v>10175.511</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>1997</v>
       </c>
@@ -6872,7 +6869,7 @@
         <v>10418.802</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>1998</v>
       </c>
@@ -6886,7 +6883,7 @@
         <v>10526.853999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>1999</v>
       </c>
@@ -6900,7 +6897,7 @@
         <v>10749.005999999999</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>2000</v>
       </c>
@@ -6914,7 +6911,7 @@
         <v>11108.324000000001</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>2001</v>
       </c>
@@ -6925,7 +6922,7 @@
         <v>11215.04</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>2002</v>
       </c>
@@ -6936,7 +6933,7 @@
         <v>11367.638999999999</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>2003</v>
       </c>
@@ -6947,7 +6944,7 @@
         <v>11637.828</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>2004</v>
       </c>
@@ -6958,7 +6955,7 @@
         <v>12074.206</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>2005</v>
       </c>
@@ -6969,7 +6966,7 @@
         <v>12463.141</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>2006</v>
       </c>
@@ -6980,7 +6977,7 @@
         <v>12933.736000000001</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>2007</v>
       </c>
@@ -6991,7 +6988,7 @@
         <v>13428.616</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>2008</v>
       </c>
@@ -7002,7 +6999,7 @@
         <v>13622.655000000001</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>2009</v>
       </c>
@@ -7013,7 +7010,7 @@
         <v>13359.558000000001</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>2010</v>
       </c>
@@ -7024,7 +7021,7 @@
         <v>13868.406000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>2011</v>
       </c>
@@ -7035,7 +7032,7 @@
         <v>14230.718999999999</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>2012</v>
       </c>
@@ -7046,7 +7043,7 @@
         <v>14504.989</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>2013</v>
       </c>
@@ -7057,7 +7054,7 @@
         <v>14789.621999999999</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>2014</v>
       </c>
@@ -7068,7 +7065,7 @@
         <v>15112.653</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>2015</v>
       </c>
@@ -7079,7 +7076,7 @@
         <v>15433.18</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>2016</v>
       </c>
@@ -7090,7 +7087,7 @@
         <v>15750.084000000001</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>2017</v>
       </c>
@@ -7101,7 +7098,7 @@
         <v>16156.353999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>2018</v>
       </c>
@@ -7112,7 +7109,7 @@
         <v>16558.998</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>2019</v>
       </c>
@@ -7123,7 +7120,7 @@
         <v>16847.46</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>2020</v>
       </c>
@@ -7134,7 +7131,7 @@
         <v>16175.776</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>2021</v>
       </c>
@@ -7145,7 +7142,7 @@
         <v>16997.134999999998</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>2022</v>
       </c>
@@ -7153,7 +7150,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>2023</v>
       </c>
@@ -7161,7 +7158,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>2024</v>
       </c>
@@ -7172,4 +7169,356 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3378105-4437-49C8-83DF-701017D240E0}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1500</v>
+      </c>
+      <c r="B2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1600</v>
+      </c>
+      <c r="B3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1700</v>
+      </c>
+      <c r="B4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1810</v>
+      </c>
+      <c r="B5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1850</v>
+      </c>
+      <c r="B6">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1870</v>
+      </c>
+      <c r="B7">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1900</v>
+      </c>
+      <c r="B8">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1920</v>
+      </c>
+      <c r="B9">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1940</v>
+      </c>
+      <c r="B10">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1950</v>
+      </c>
+      <c r="B11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1960</v>
+      </c>
+      <c r="B12">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1970</v>
+      </c>
+      <c r="B13">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1980</v>
+      </c>
+      <c r="B14">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1994</v>
+      </c>
+      <c r="B15">
+        <v>9791.4230000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1995</v>
+      </c>
+      <c r="B16">
+        <v>9949.6679999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1996</v>
+      </c>
+      <c r="B17">
+        <v>10175.511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1997</v>
+      </c>
+      <c r="B18">
+        <v>10418.802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1998</v>
+      </c>
+      <c r="B19">
+        <v>10526.853999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1999</v>
+      </c>
+      <c r="B20">
+        <v>10749.005999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21">
+        <v>11108.324000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>2001</v>
+      </c>
+      <c r="B22">
+        <v>11215.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>2002</v>
+      </c>
+      <c r="B23">
+        <v>11367.638999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>2003</v>
+      </c>
+      <c r="B24">
+        <v>11637.828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2004</v>
+      </c>
+      <c r="B25">
+        <v>12074.206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>2005</v>
+      </c>
+      <c r="B26">
+        <v>12463.141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2006</v>
+      </c>
+      <c r="B27">
+        <v>12933.736000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>2007</v>
+      </c>
+      <c r="B28">
+        <v>13428.616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2008</v>
+      </c>
+      <c r="B29">
+        <v>13622.655000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2009</v>
+      </c>
+      <c r="B30">
+        <v>13359.558000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2010</v>
+      </c>
+      <c r="B31">
+        <v>13868.406000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2011</v>
+      </c>
+      <c r="B32">
+        <v>14230.718999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2012</v>
+      </c>
+      <c r="B33">
+        <v>14504.989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>2013</v>
+      </c>
+      <c r="B34">
+        <v>14789.621999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>2014</v>
+      </c>
+      <c r="B35">
+        <v>15112.653</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>2015</v>
+      </c>
+      <c r="B36">
+        <v>15433.18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>2016</v>
+      </c>
+      <c r="B37">
+        <v>15750.084000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>2017</v>
+      </c>
+      <c r="B38">
+        <v>16156.353999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>2018</v>
+      </c>
+      <c r="B39">
+        <v>16558.998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>2019</v>
+      </c>
+      <c r="B40">
+        <v>16847.46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>2020</v>
+      </c>
+      <c r="B41">
+        <v>16175.776</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>2021</v>
+      </c>
+      <c r="B42">
+        <v>16997.134999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>